--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>vb: 19/04/2016</t>
+  </si>
+  <si>
+    <t>Woensdag</t>
+  </si>
+  <si>
+    <t>Introductie</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Opdracht bedenken en omschrijven</t>
+  </si>
+  <si>
+    <t>Gesprek Opdrachtgever en Tutor + Userstories aangemaakt + Logboek gemaakt + Github repository gestart + Trello</t>
   </si>
 </sst>
 </file>
@@ -209,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,6 +252,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -847,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2049,7 +2067,7 @@
   <dimension ref="A5:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2648,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,33 +2721,69 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="11">
+        <v>42473</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="11">
+        <v>42478</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>42479</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="11">
+        <v>42114</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>16</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\P4P-chatbot\Logboek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -116,11 +121,20 @@
   <si>
     <t>Donderdag</t>
   </si>
+  <si>
+    <t>Introductie</t>
+  </si>
+  <si>
+    <t>Opdracht bedenken en omschrijven</t>
+  </si>
+  <si>
+    <t>Gesprek Opdrachtgever en Tutor + Userstories aangemaakt + Logboek gemaakt + Github repository gestart + Trello</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,6 +302,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +904,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,13 +918,13 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -931,7 +948,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -951,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -959,7 +976,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -967,7 +984,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -975,7 +992,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -983,7 +1000,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -991,7 +1008,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -999,7 +1016,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1007,7 +1024,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1015,7 +1032,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1023,7 +1040,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1031,7 +1048,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1039,7 +1056,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1047,7 +1064,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1055,7 +1072,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1063,7 +1080,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1071,7 +1088,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1079,7 +1096,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1087,7 +1104,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1095,7 +1112,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1103,7 +1120,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1111,7 +1128,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1119,7 +1136,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1127,7 +1144,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1135,7 +1152,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1143,7 +1160,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1151,7 +1168,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1159,7 +1176,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1167,7 +1184,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1175,7 +1192,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1183,7 +1200,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1191,7 +1208,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1199,7 +1216,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1207,7 +1224,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1215,7 +1232,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1223,7 +1240,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1231,7 +1248,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1239,7 +1256,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1247,7 +1264,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1255,7 +1272,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1263,7 +1280,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1271,7 +1288,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1279,7 +1296,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1287,7 +1304,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1295,7 +1312,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1303,7 +1320,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1311,7 +1328,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1319,7 +1336,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1327,7 +1344,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1335,7 +1352,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1343,7 +1360,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1351,7 +1368,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1359,7 +1376,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1367,7 +1384,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1375,7 +1392,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1383,7 +1400,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1391,7 +1408,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1399,7 +1416,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1407,7 +1424,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1415,7 +1432,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1423,7 +1440,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1431,7 +1448,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1439,7 +1456,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1447,7 +1464,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1455,7 +1472,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1463,7 +1480,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1471,7 +1488,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1479,7 +1496,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1502,13 +1519,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1532,7 +1549,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1552,7 +1569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1560,7 +1577,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1568,7 +1585,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1576,7 +1593,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1584,7 +1601,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1592,7 +1609,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1600,7 +1617,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1608,7 +1625,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1616,7 +1633,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1624,7 +1641,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1632,7 +1649,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1640,7 +1657,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1648,7 +1665,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1656,7 +1673,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1664,7 +1681,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1672,7 +1689,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1680,7 +1697,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1688,7 +1705,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1696,7 +1713,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1704,7 +1721,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1712,7 +1729,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1720,7 +1737,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1728,7 +1745,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1736,7 +1753,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1744,7 +1761,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1752,7 +1769,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1760,7 +1777,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1768,7 +1785,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1776,7 +1793,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1784,7 +1801,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1792,7 +1809,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1800,7 +1817,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1808,7 +1825,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1816,7 +1833,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1824,7 +1841,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1832,7 +1849,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1840,7 +1857,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1848,7 +1865,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1856,7 +1873,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1864,7 +1881,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1872,7 +1889,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1880,7 +1897,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1888,7 +1905,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1896,7 +1913,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1904,7 +1921,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1912,7 +1929,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1920,7 +1937,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1928,7 +1945,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1936,7 +1953,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1944,7 +1961,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1952,7 +1969,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1960,7 +1977,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1968,7 +1985,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1976,7 +1993,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1984,7 +2001,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1992,7 +2009,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2000,7 +2017,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2008,7 +2025,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2016,7 +2033,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2024,7 +2041,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2032,7 +2049,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2040,7 +2057,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2048,7 +2065,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2056,7 +2073,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2064,7 +2081,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2072,7 +2089,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2080,7 +2097,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2098,17 +2115,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2132,7 +2149,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2150,7 +2167,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2170,7 +2187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -2188,7 +2205,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2223,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -2220,7 +2237,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2228,7 +2245,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2236,7 +2253,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -2244,7 +2261,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2252,7 +2269,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2260,7 +2277,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2268,7 +2285,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2276,7 +2293,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2284,7 +2301,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2292,7 +2309,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2300,7 +2317,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2308,7 +2325,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2316,7 +2333,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2324,7 +2341,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2332,7 +2349,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2340,7 +2357,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2348,7 +2365,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2356,7 +2373,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2364,7 +2381,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2372,7 +2389,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2380,7 +2397,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2388,7 +2405,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2396,7 +2413,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2404,7 +2421,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2412,7 +2429,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2420,7 +2437,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2428,7 +2445,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2436,7 +2453,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2444,7 +2461,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2452,7 +2469,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2460,7 +2477,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2468,7 +2485,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2476,7 +2493,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2484,7 +2501,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2492,7 +2509,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2500,7 +2517,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2508,7 +2525,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2516,7 +2533,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2524,7 +2541,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2532,7 +2549,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2540,7 +2557,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2548,7 +2565,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2556,7 +2573,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2564,7 +2581,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2572,7 +2589,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2580,7 +2597,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2588,7 +2605,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2596,7 +2613,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2604,7 +2621,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2612,7 +2629,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2620,7 +2637,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2628,7 +2645,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2636,7 +2653,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2644,7 +2661,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2652,7 +2669,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2660,7 +2677,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2668,7 +2685,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2676,7 +2693,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2684,7 +2701,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2692,7 +2709,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2700,7 +2717,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2708,7 +2725,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2716,7 +2733,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2735,17 +2752,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2769,7 +2786,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -2789,39 +2806,75 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>42473</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>42478</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>42479</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>42114</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
+        <v>16</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2829,7 +2882,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2837,7 +2890,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2845,7 +2898,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2853,7 +2906,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2861,7 +2914,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2869,7 +2922,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2877,7 +2930,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2885,7 +2938,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2893,7 +2946,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2901,7 +2954,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2909,7 +2962,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2917,7 +2970,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2925,7 +2978,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2933,7 +2986,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2941,7 +2994,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2949,7 +3002,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2957,7 +3010,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2965,7 +3018,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2973,7 +3026,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2981,7 +3034,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2989,7 +3042,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2997,7 +3050,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3005,7 +3058,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3013,7 +3066,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3021,7 +3074,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3029,7 +3082,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3037,7 +3090,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3045,7 +3098,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3053,7 +3106,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3061,7 +3114,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3069,7 +3122,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3077,7 +3130,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3085,7 +3138,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3093,7 +3146,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3101,7 +3154,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3109,7 +3162,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3117,7 +3170,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3125,7 +3178,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3133,7 +3186,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3141,7 +3194,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3149,7 +3202,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3157,7 +3210,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3165,7 +3218,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3173,7 +3226,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3181,7 +3234,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3189,7 +3242,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3197,7 +3250,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3205,7 +3258,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3213,7 +3266,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3221,7 +3274,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3229,7 +3282,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3237,7 +3290,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3245,7 +3298,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3253,7 +3306,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3261,7 +3314,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3269,7 +3322,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3277,7 +3330,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3285,7 +3338,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3293,7 +3346,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3301,7 +3354,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3309,7 +3362,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3317,7 +3370,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\P4P-chatbot\Logboek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Geart" sheetId="3" r:id="rId3"/>
     <sheet name="Ruud" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -82,12 +77,51 @@
   <si>
     <t>vb: 19/04/2016</t>
   </si>
+  <si>
+    <t>13/4/2016</t>
+  </si>
+  <si>
+    <t>Introductie tot het project en ontmoeting tussen groepsleden en tutor</t>
+  </si>
+  <si>
+    <t>18/4/2016</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Idee bedenken met groepsleden</t>
+  </si>
+  <si>
+    <t>Hele dag les kon niet werken aan project</t>
+  </si>
+  <si>
+    <t>19/4/2016</t>
+  </si>
+  <si>
+    <t>Gesprek opdrachtgever en tutor en begin gemaakt aan project</t>
+  </si>
+  <si>
+    <t>20/4/2016</t>
+  </si>
+  <si>
+    <t>Woensdag</t>
+  </si>
+  <si>
+    <t>Bot aangemaakt, code geschreven, logboek bijgehouden en taken verdeeld</t>
+  </si>
+  <si>
+    <t>21/4/2016</t>
+  </si>
+  <si>
+    <t>Donderdag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +148,13 @@
       <i/>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -238,6 +279,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -847,17 +897,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="38.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -881,7 +931,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -901,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -909,7 +959,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -917,7 +967,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -925,7 +975,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -933,7 +983,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -941,7 +991,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -949,7 +999,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -957,7 +1007,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -965,7 +1015,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -973,7 +1023,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -981,7 +1031,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -989,7 +1039,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -997,7 +1047,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1005,7 +1055,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1013,7 +1063,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1021,7 +1071,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1029,7 +1079,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1037,7 +1087,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1045,7 +1095,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1053,7 +1103,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1061,7 +1111,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1069,7 +1119,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1077,7 +1127,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1085,7 +1135,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1093,7 +1143,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1101,7 +1151,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1109,7 +1159,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1117,7 +1167,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1125,7 +1175,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1133,7 +1183,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1141,7 +1191,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1149,7 +1199,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1157,7 +1207,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1165,7 +1215,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1173,7 +1223,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1181,7 +1231,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1189,7 +1239,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1197,7 +1247,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1205,7 +1255,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1213,7 +1263,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1221,7 +1271,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1229,7 +1279,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1237,7 +1287,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1245,7 +1295,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1253,7 +1303,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1261,7 +1311,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1269,7 +1319,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1277,7 +1327,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1285,7 +1335,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1293,7 +1343,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1301,7 +1351,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1309,7 +1359,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1317,7 +1367,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1325,7 +1375,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1333,7 +1383,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1341,7 +1391,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1349,7 +1399,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1357,7 +1407,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1365,7 +1415,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1373,7 +1423,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1381,7 +1431,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1389,7 +1439,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1397,7 +1447,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1405,7 +1455,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1413,7 +1463,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1421,7 +1471,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1429,7 +1479,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1452,13 +1502,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="38.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1482,7 +1532,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1510,7 +1560,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1518,7 +1568,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1526,7 +1576,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1534,7 +1584,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1542,7 +1592,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1550,7 +1600,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1558,7 +1608,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1566,7 +1616,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1574,7 +1624,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1582,7 +1632,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1590,7 +1640,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1598,7 +1648,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1606,7 +1656,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1614,7 +1664,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1622,7 +1672,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1630,7 +1680,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1638,7 +1688,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1646,7 +1696,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1654,7 +1704,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1662,7 +1712,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1670,7 +1720,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1678,7 +1728,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1686,7 +1736,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1694,7 +1744,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1702,7 +1752,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1710,7 +1760,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1718,7 +1768,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1726,7 +1776,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1734,7 +1784,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1742,7 +1792,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1750,7 +1800,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1758,7 +1808,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1766,7 +1816,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1774,7 +1824,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1782,7 +1832,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1790,7 +1840,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1798,7 +1848,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1806,7 +1856,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1814,7 +1864,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1822,7 +1872,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1830,7 +1880,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1838,7 +1888,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1846,7 +1896,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1854,7 +1904,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1862,7 +1912,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1870,7 +1920,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1878,7 +1928,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1886,7 +1936,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1894,7 +1944,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1902,7 +1952,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1910,7 +1960,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1918,7 +1968,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1926,7 +1976,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1934,7 +1984,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1942,7 +1992,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1950,7 +2000,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1958,7 +2008,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1966,7 +2016,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1974,7 +2024,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1982,7 +2032,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1990,7 +2040,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1998,7 +2048,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2006,7 +2056,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2014,7 +2064,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2022,7 +2072,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2030,7 +2080,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2048,17 +2098,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="38.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2082,219 +2132,255 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="12">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13">
         <v>16</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2302,7 +2388,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2310,7 +2396,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2318,7 +2404,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2326,7 +2412,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2334,7 +2420,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2342,7 +2428,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2350,7 +2436,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2358,7 +2444,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2366,7 +2452,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2374,7 +2460,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2382,7 +2468,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2390,7 +2476,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2398,7 +2484,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2406,7 +2492,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2414,7 +2500,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2422,7 +2508,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2430,7 +2516,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2438,7 +2524,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2446,7 +2532,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2454,7 +2540,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2462,7 +2548,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2470,7 +2556,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2478,7 +2564,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2486,7 +2572,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2494,7 +2580,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2502,7 +2588,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2510,7 +2596,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2518,7 +2604,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2526,7 +2612,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2534,7 +2620,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2542,7 +2628,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2550,7 +2636,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2558,7 +2644,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2566,7 +2652,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2574,7 +2660,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2582,7 +2668,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2590,7 +2676,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2598,7 +2684,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2606,7 +2692,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2614,7 +2700,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2622,7 +2708,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2630,7 +2716,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2640,7 +2726,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2652,13 +2739,13 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="38.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2682,7 +2769,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -2702,7 +2789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2710,7 +2797,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2718,7 +2805,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2726,7 +2813,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2734,7 +2821,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2742,7 +2829,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2750,7 +2837,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2758,7 +2845,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2766,7 +2853,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2774,7 +2861,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2782,7 +2869,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2790,7 +2877,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2798,7 +2885,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2806,7 +2893,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2814,7 +2901,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2822,7 +2909,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2830,7 +2917,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2838,7 +2925,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2846,7 +2933,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2854,7 +2941,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2862,7 +2949,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2870,7 +2957,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2878,7 +2965,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2886,7 +2973,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2894,7 +2981,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2902,7 +2989,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2910,7 +2997,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2918,7 +3005,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2926,7 +3013,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2934,7 +3021,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2942,7 +3029,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2950,7 +3037,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2958,7 +3045,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2966,7 +3053,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2974,7 +3061,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2982,7 +3069,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2990,7 +3077,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2998,7 +3085,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3006,7 +3093,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3014,7 +3101,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3022,7 +3109,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3030,7 +3117,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3038,7 +3125,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3046,7 +3133,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3054,7 +3141,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3062,7 +3149,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3070,7 +3157,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3078,7 +3165,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3086,7 +3173,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3094,7 +3181,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3102,7 +3189,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3110,7 +3197,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3118,7 +3205,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3126,7 +3213,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3134,7 +3221,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3142,7 +3229,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3150,7 +3237,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3158,7 +3245,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3166,7 +3253,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3174,7 +3261,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3182,7 +3269,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3190,7 +3277,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3198,7 +3285,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3206,7 +3293,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3214,7 +3301,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3222,7 +3309,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3230,7 +3317,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\P4P-chatbot\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\P4P NHL-Helpdeskbot\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Dictaat en planningschema doorgelezen + Start gemaakt met het functioneel ontwerp + Aanvraag verzetten deadline 6 mei FO + e-mail opdrachtgever vragen naar randvoorwaarden en overige eisen en wensen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesverslag geschreven </t>
   </si>
 </sst>
 </file>
@@ -2762,7 +2765,7 @@
   <dimension ref="A5:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2890,11 +2893,21 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="14">
+        <v>42115</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -141,6 +141,39 @@
   </si>
   <si>
     <t xml:space="preserve">Procesverslag geschreven </t>
+  </si>
+  <si>
+    <t>4/13/2016</t>
+  </si>
+  <si>
+    <t>4/18/2016</t>
+  </si>
+  <si>
+    <t>Opdracht meebenken en aanvullen met het opzetten van waarmee we gaan werken.</t>
+  </si>
+  <si>
+    <t>Heb de plek en tijd besproken om dit te doen</t>
+  </si>
+  <si>
+    <t>4/19/2016</t>
+  </si>
+  <si>
+    <t>Tutor en opdrachtgever gesprekken gehad, meningen gegeven over de opdracht. Daarna begonnen aan het developpen van de bot, mede door mijn groepsleden de taal bekend te maken</t>
+  </si>
+  <si>
+    <t>Kwam beetje te laat (5 min) wegens bus tijden.</t>
+  </si>
+  <si>
+    <t>4/20/2016</t>
+  </si>
+  <si>
+    <t>Grote progressie gemaakt met de bot, taakverdeling opgeschoven van het programmeren.  Commands veranderd zodat de bot reageerd op wat er gezegd wordt</t>
+  </si>
+  <si>
+    <t>Meeste van het werk wordt samen met een willekeurig andere stundend gedaan, omdat ik het meeste ervaring heb doe ik begeleiden werk, zodat iedereen even programmeerd</t>
+  </si>
+  <si>
+    <t>4/21/2016</t>
   </si>
 </sst>
 </file>
@@ -926,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +993,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -980,43 +1013,97 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
@@ -2764,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t>4/21/2016</t>
+  </si>
+  <si>
+    <t>Uitzieken</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>Python code aangepast, zodat hij strings leest en onderdelen pakt en daar op antwoord.</t>
+  </si>
+  <si>
+    <t>Woensdag ochtend geen auto beschikbaar.</t>
+  </si>
+  <si>
+    <t>Zelftest gemaakt en logboek bijgewerkt.</t>
+  </si>
+  <si>
+    <t>Huiswerkdag.</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,6 +367,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -959,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1615,7 +1639,7 @@
   <dimension ref="A5:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1651,7 @@
     <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1646,9 +1670,9 @@
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1668,45 +1692,101 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>42473</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>42478</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>42479</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>42114</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>42115</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2214,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\P4P NHL-Helpdeskbot\Logboek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -193,11 +188,38 @@
   <si>
     <t>Huiswerkdag.</t>
   </si>
+  <si>
+    <t>22/4/2016</t>
+  </si>
+  <si>
+    <t>Vrijdag</t>
+  </si>
+  <si>
+    <t>Zelftest en logboek</t>
+  </si>
+  <si>
+    <t>Huiswerkdag</t>
+  </si>
+  <si>
+    <t>Ziek ivm amandelontsteking</t>
+  </si>
+  <si>
+    <t>25/4/2016</t>
+  </si>
+  <si>
+    <t>26/4/2016</t>
+  </si>
+  <si>
+    <t>Om 3 uur werken</t>
+  </si>
+  <si>
+    <t>ToDo lijst bijgewerkt, Code geschreven, gesprek met tutor en opdrachtgever</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,6 +396,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,7 +1013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -987,13 +1027,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,7 +1057,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1055,7 +1095,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1131,7 +1171,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1139,7 +1179,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1147,7 +1187,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1155,7 +1195,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1163,7 +1203,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1171,7 +1211,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1179,7 +1219,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1187,7 +1227,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1195,7 +1235,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1203,7 +1243,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1211,7 +1251,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1219,7 +1259,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1227,7 +1267,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1235,7 +1275,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1243,7 +1283,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1251,7 +1291,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1259,7 +1299,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1267,7 +1307,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1275,7 +1315,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1283,7 +1323,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1291,7 +1331,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1299,7 +1339,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1307,7 +1347,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1315,7 +1355,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1323,7 +1363,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1331,7 +1371,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1339,7 +1379,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1347,7 +1387,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1355,7 +1395,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1363,7 +1403,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1371,7 +1411,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1379,7 +1419,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1387,7 +1427,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1395,7 +1435,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1403,7 +1443,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1411,7 +1451,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1419,7 +1459,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1427,7 +1467,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1435,7 +1475,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1443,7 +1483,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1451,7 +1491,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1459,7 +1499,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1467,7 +1507,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1475,7 +1515,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1483,7 +1523,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1491,7 +1531,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1499,7 +1539,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1507,7 +1547,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1515,7 +1555,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1523,7 +1563,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1531,7 +1571,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1539,7 +1579,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1547,7 +1587,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1555,7 +1595,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1563,7 +1603,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1571,7 +1611,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1579,7 +1619,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1587,7 +1627,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1595,7 +1635,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1603,7 +1643,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1611,7 +1651,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1619,7 +1659,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1642,13 +1682,13 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1672,7 +1712,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1692,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>42473</v>
       </c>
@@ -1710,7 +1750,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>42478</v>
       </c>
@@ -1730,7 +1770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>42479</v>
       </c>
@@ -1748,7 +1788,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>42114</v>
       </c>
@@ -1768,7 +1808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>42115</v>
       </c>
@@ -1788,7 +1828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1796,7 +1836,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1804,7 +1844,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1812,7 +1852,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1820,7 +1860,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1828,7 +1868,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1836,7 +1876,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1844,7 +1884,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1852,7 +1892,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1860,7 +1900,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1868,7 +1908,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1876,7 +1916,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1884,7 +1924,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1892,7 +1932,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1900,7 +1940,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1908,7 +1948,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1916,7 +1956,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1924,7 +1964,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1932,7 +1972,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1940,7 +1980,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1948,7 +1988,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1956,7 +1996,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1964,7 +2004,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1972,7 +2012,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1980,7 +2020,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1988,7 +2028,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1996,7 +2036,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2004,7 +2044,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2012,7 +2052,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2020,7 +2060,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2028,7 +2068,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2036,7 +2076,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2044,7 +2084,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2052,7 +2092,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2060,7 +2100,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2068,7 +2108,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2076,7 +2116,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2084,7 +2124,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2092,7 +2132,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2100,7 +2140,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2108,7 +2148,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2116,7 +2156,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2124,7 +2164,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2132,7 +2172,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2140,7 +2180,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2148,7 +2188,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2156,7 +2196,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2164,7 +2204,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2172,7 +2212,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2180,7 +2220,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2188,7 +2228,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2196,7 +2236,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2204,7 +2244,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2212,7 +2252,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2220,7 +2260,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2228,7 +2268,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2236,7 +2276,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2244,7 +2284,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2252,7 +2292,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2260,7 +2300,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2268,7 +2308,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2276,7 +2316,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2295,19 +2335,19 @@
   <dimension ref="A5:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="22"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2357,7 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2328,7 +2368,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2338,7 +2378,7 @@
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -2346,7 +2386,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2356,7 +2396,7 @@
       <c r="C7" s="13">
         <v>16</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -2366,7 +2406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -2376,7 +2416,7 @@
       <c r="C8" s="13">
         <v>16</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="19">
         <v>4</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -2384,7 +2424,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
@@ -2394,7 +2434,7 @@
       <c r="C9" s="13">
         <v>16</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="19">
         <v>4</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -2402,7 +2442,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -2412,511 +2452,549 @@
       <c r="C10" s="13">
         <v>16</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="13">
+        <v>16</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13">
+        <v>17</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="13"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="13"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="13"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="13"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="13"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="13"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="13"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="13"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="13"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="13"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="13"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="13"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="13"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="13"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="13"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="13"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="21"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="21"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="21"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="21"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="21"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="21"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="21"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="21"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
@@ -2935,13 +3013,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2965,7 +3043,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -2985,7 +3063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42473</v>
       </c>
@@ -3003,7 +3081,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>42478</v>
       </c>
@@ -3021,7 +3099,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>42479</v>
       </c>
@@ -3039,7 +3117,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="86.45" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42114</v>
       </c>
@@ -3059,7 +3137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42115</v>
       </c>
@@ -3077,7 +3155,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3085,7 +3163,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3093,7 +3171,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3101,7 +3179,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3109,7 +3187,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3117,7 +3195,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3125,7 +3203,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3133,7 +3211,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3141,7 +3219,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3149,7 +3227,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3157,7 +3235,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3165,7 +3243,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3173,7 +3251,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3181,7 +3259,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3189,7 +3267,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3197,7 +3275,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3205,7 +3283,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3213,7 +3291,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3221,7 +3299,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3229,7 +3307,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3237,7 +3315,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3245,7 +3323,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3253,7 +3331,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3261,7 +3339,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3269,7 +3347,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3277,7 +3355,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3285,7 +3363,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3293,7 +3371,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3301,7 +3379,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3309,7 +3387,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3317,7 +3395,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3325,7 +3403,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3333,7 +3411,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3341,7 +3419,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3349,7 +3427,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3357,7 +3435,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3365,7 +3443,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3373,7 +3451,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3381,7 +3459,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3389,7 +3467,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3397,7 +3475,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3405,7 +3483,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3413,7 +3491,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3421,7 +3499,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3429,7 +3507,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3437,7 +3515,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3445,7 +3523,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3453,7 +3531,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3461,7 +3539,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3469,7 +3547,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3477,7 +3555,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3485,7 +3563,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3493,7 +3571,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3501,7 +3579,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3509,7 +3587,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3517,7 +3595,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3525,7 +3603,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3533,7 +3611,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3541,7 +3619,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3549,7 +3627,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3557,7 +3635,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3565,7 +3643,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\Informatica\P4P NHL-Helpdeskbot\Logboek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>Datum</t>
   </si>
@@ -215,11 +220,23 @@
   <si>
     <t>ToDo lijst bijgewerkt, Code geschreven, gesprek met tutor en opdrachtgever</t>
   </si>
+  <si>
+    <t>Feedback van opdrachtgever in FO verwerkt + Wireframes gemaakt + FO Opgestuurd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afspraak met tutor + Afspraak met Opdrachtgever. </t>
+  </si>
+  <si>
+    <t>Rest van de week besteeds aan Portfolio en Practicum opdrachten</t>
+  </si>
+  <si>
+    <t>Koningsdag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +293,11 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -346,10 +368,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -415,8 +438,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1013,7 +1040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,17 +1050,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1057,7 +1084,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1122,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1155,7 +1182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1171,7 +1198,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1179,7 +1206,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1187,7 +1214,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1195,7 +1222,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1203,7 +1230,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1211,7 +1238,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1219,7 +1246,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1227,7 +1254,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1235,7 +1262,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1243,7 +1270,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1251,7 +1278,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1259,7 +1286,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1267,7 +1294,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1275,7 +1302,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1283,7 +1310,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1291,7 +1318,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1299,7 +1326,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1307,7 +1334,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1315,7 +1342,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1323,7 +1350,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1331,7 +1358,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1339,7 +1366,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1347,7 +1374,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1355,7 +1382,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1363,7 +1390,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1371,7 +1398,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1379,7 +1406,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1387,7 +1414,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1395,7 +1422,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1403,7 +1430,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1411,7 +1438,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1419,7 +1446,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1427,7 +1454,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1435,7 +1462,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1443,7 +1470,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1451,7 +1478,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1459,7 +1486,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1467,7 +1494,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1475,7 +1502,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1483,7 +1510,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1491,7 +1518,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1499,7 +1526,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1507,7 +1534,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1515,7 +1542,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1523,7 +1550,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1531,7 +1558,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1539,7 +1566,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1547,7 +1574,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1555,7 +1582,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1563,7 +1590,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1571,7 +1598,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1579,7 +1606,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1587,7 +1614,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1595,7 +1622,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1603,7 +1630,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1611,7 +1638,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1619,7 +1646,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1627,7 +1654,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1635,7 +1662,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1643,7 +1670,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1651,7 +1678,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1659,7 +1686,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1679,16 +1706,16 @@
   <dimension ref="A5:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1712,7 +1739,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1732,7 +1759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>42473</v>
       </c>
@@ -1750,7 +1777,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>42478</v>
       </c>
@@ -1770,7 +1797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>42479</v>
       </c>
@@ -1788,7 +1815,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>42114</v>
       </c>
@@ -1808,7 +1835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>42115</v>
       </c>
@@ -1828,7 +1855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1836,7 +1863,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1844,7 +1871,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1852,7 +1879,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1860,7 +1887,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1868,7 +1895,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1876,7 +1903,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1884,7 +1911,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1892,7 +1919,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1900,7 +1927,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1908,7 +1935,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1916,7 +1943,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1924,7 +1951,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1932,7 +1959,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1940,7 +1967,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1948,7 +1975,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1956,7 +1983,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1964,7 +1991,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1972,7 +1999,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1980,7 +2007,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1988,7 +2015,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1996,7 +2023,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2004,7 +2031,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2012,7 +2039,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2020,7 +2047,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2028,7 +2055,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2036,7 +2063,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2044,7 +2071,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2052,7 +2079,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2060,7 +2087,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2068,7 +2095,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2076,7 +2103,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2084,7 +2111,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2092,7 +2119,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2100,7 +2127,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2108,7 +2135,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2116,7 +2143,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2124,7 +2151,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2132,7 +2159,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2140,7 +2167,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2148,7 +2175,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2156,7 +2183,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2164,7 +2191,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2172,7 +2199,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2180,7 +2207,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2188,7 +2215,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2196,7 +2223,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2204,7 +2231,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2212,7 +2239,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2220,7 +2247,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2228,7 +2255,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2236,7 +2263,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2244,7 +2271,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2252,7 +2279,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2260,7 +2287,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2268,7 +2295,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2276,7 +2303,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2284,7 +2311,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2292,7 +2319,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2300,7 +2327,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2308,7 +2335,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2316,7 +2343,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2334,20 +2361,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="22"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="22"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2368,7 +2395,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +2413,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2406,7 +2433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -2424,7 +2451,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
@@ -2442,7 +2469,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
@@ -2462,7 +2489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>47</v>
       </c>
@@ -2480,7 +2507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
@@ -2498,7 +2525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>53</v>
       </c>
@@ -2518,7 +2545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2526,7 +2553,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2534,7 +2561,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2542,7 +2569,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2550,7 +2577,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2558,7 +2585,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2566,7 +2593,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2574,7 +2601,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2582,7 +2609,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2590,7 +2617,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2598,7 +2625,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2606,7 +2633,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2614,7 +2641,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2622,7 +2649,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2630,7 +2657,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2638,7 +2665,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2646,7 +2673,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2654,7 +2681,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2662,7 +2689,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2670,7 +2697,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2678,7 +2705,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2686,7 +2713,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2694,7 +2721,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2702,7 +2729,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2710,7 +2737,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2718,7 +2745,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2726,7 +2753,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2734,7 +2761,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2742,7 +2769,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2750,7 +2777,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2758,7 +2785,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2766,7 +2793,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2774,7 +2801,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2782,7 +2809,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2790,7 +2817,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2798,7 +2825,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2806,7 +2833,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2814,7 +2841,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2822,7 +2849,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2830,7 +2857,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2838,7 +2865,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2846,7 +2873,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2854,7 +2881,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2862,7 +2889,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2870,7 +2897,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2878,7 +2905,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2886,7 +2913,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2894,7 +2921,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2902,7 +2929,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2910,7 +2937,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2918,7 +2945,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2926,7 +2953,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2934,7 +2961,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2942,7 +2969,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2950,7 +2977,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2958,7 +2985,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2966,7 +2993,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2974,7 +3001,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2982,7 +3009,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2990,7 +3017,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3009,17 +3036,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3043,7 +3070,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +3090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42473</v>
       </c>
@@ -3081,7 +3108,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>42478</v>
       </c>
@@ -3099,7 +3126,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>42479</v>
       </c>
@@ -3117,9 +3144,9 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="86.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
-        <v>42114</v>
+        <v>42480</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>19</v>
@@ -3137,9 +3164,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
-        <v>42115</v>
+        <v>42481</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>22</v>
@@ -3155,31 +3182,65 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>42485</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>42486</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3187,7 +3248,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3195,7 +3256,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3203,7 +3264,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3211,7 +3272,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3219,7 +3280,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3227,7 +3288,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3235,7 +3296,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3243,7 +3304,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3251,7 +3312,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3259,7 +3320,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3267,7 +3328,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3275,7 +3336,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3283,7 +3344,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3291,7 +3352,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3299,7 +3360,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3307,7 +3368,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3315,7 +3376,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3323,7 +3384,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3331,7 +3392,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3339,7 +3400,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3347,7 +3408,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3355,7 +3416,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3363,7 +3424,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3371,7 +3432,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3379,7 +3440,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3387,7 +3448,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3395,7 +3456,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3403,7 +3464,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3411,7 +3472,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3419,7 +3480,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3427,7 +3488,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3435,7 +3496,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3443,7 +3504,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3451,7 +3512,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3459,7 +3520,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3467,7 +3528,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3475,7 +3536,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3483,7 +3544,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3491,7 +3552,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3499,7 +3560,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3507,7 +3568,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3515,7 +3576,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3523,7 +3584,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3531,7 +3592,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3539,7 +3600,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3547,7 +3608,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3555,7 +3616,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3563,7 +3624,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3571,7 +3632,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3579,7 +3640,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3587,7 +3648,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3595,7 +3656,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3603,7 +3664,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3611,7 +3672,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3619,7 +3680,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3627,7 +3688,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3635,7 +3696,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3643,7 +3704,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3653,6 +3714,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19296" windowHeight="7896" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Geart" sheetId="3" r:id="rId3"/>
     <sheet name="Ruud" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,13 +224,13 @@
     <t>Feedback van opdrachtgever in FO verwerkt + Wireframes gemaakt + FO Opgestuurd</t>
   </si>
   <si>
-    <t xml:space="preserve">Afspraak met tutor + Afspraak met Opdrachtgever. </t>
-  </si>
-  <si>
     <t>Rest van de week besteeds aan Portfolio en Practicum opdrachten</t>
   </si>
   <si>
     <t>Koningsdag</t>
+  </si>
+  <si>
+    <t>Tussen gesprekken door samen met groep gewerkt</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3036,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3211,33 +3211,33 @@
         <v>17</v>
       </c>
       <c r="D13" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Wander" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Reinder" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Geart" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Ruud" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Wander" sheetId="1" r:id="rId1"/>
+    <sheet name="Reinder" sheetId="2" r:id="rId2"/>
+    <sheet name="Geart" sheetId="3" r:id="rId3"/>
+    <sheet name="Ruud" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,30 +22,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weeknummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gewerkt in uren</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>dag</t>
+  </si>
+  <si>
+    <t>Weeknummer</t>
+  </si>
+  <si>
+    <t>Gewerkt in uren</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Werkzaamheden                                              </t>
+      <t>Werkzaamheden</t>
     </r>
     <r>
       <rPr>
@@ -56,20 +55,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(Wat heb je gedaan?)  </t>
+      <t>(Wat heb je gedaan?)</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Opmerkingen </t>
+      <t>Opmerkingen</t>
     </r>
     <r>
       <rPr>
@@ -83,163 +82,163 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">vb: 19/04/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinsdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rondjes gelopen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik was zenuwachtig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/13/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woensdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introductie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/18/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maandag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opdracht meebenken en aanvullen met het opzetten van waarmee we gaan werken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heb de plek en tijd besproken om dit te doen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/19/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutor en opdrachtgever gesprekken gehad, meningen gegeven over de opdracht. Daarna begonnen aan het developpen van de bot, mede door mijn groepsleden de taal bekend te maken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwam beetje te laat (5 min) wegens bus tijden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/20/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grote progressie gemaakt met de bot, taakverdeling opgeschoven van het programmeren.  Commands veranderd zodat de bot reageerd op wat er gezegd wordt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeste van het werk wordt samen met een willekeurig andere stundend gedaan, omdat ik het meeste ervaring heb doe ik begeleiden werk, zodat iedereen even programmeerd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/21/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donderdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uitzieken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesprek Opdrachtgever en Tutor + Userstories aangemaakt + Logboek gemaakt + Github repository gestart + Trello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python code aangepast, zodat hij strings leest en onderdelen pakt en daar op antwoord.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woensdag ochtend geen auto beschikbaar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zelftest gemaakt en logboek bijgewerkt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huiswerkdag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinnen gemaakt en keywords.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tussen gesprekken door samen met groep gewerkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website afgemaakt de rest van de dag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koningsdag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koningsdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introductie tot het project en ontmoeting tussen groepsleden en tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idee bedenken met groepsleden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hele dag les kon niet werken aan project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesprek opdrachtgever en tutor en begin gemaakt aan project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot aangemaakt, code geschreven, logboek bijgehouden en taken verdeeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zelftest en logboek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huiswerkdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vrijdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziek ivm amandelontsteking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ToDo lijst bijgewerkt, Code geschreven, gesprek met tutor en opdrachtgever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Om 3 uur werken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opdracht bedenken en omschrijven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictaat en planningschema doorgelezen + Start gemaakt met het functioneel ontwerp + Aanvraag verzetten deadline 6 mei FO + e-mail opdrachtgever vragen naar randvoorwaarden en overige eisen en wensen.</t>
+    <t>vb: 19/04/2016</t>
+  </si>
+  <si>
+    <t>Dinsdag</t>
+  </si>
+  <si>
+    <t>Rondjes gelopen</t>
+  </si>
+  <si>
+    <t>Ik was zenuwachtig</t>
+  </si>
+  <si>
+    <t>4/13/2016</t>
+  </si>
+  <si>
+    <t>Woensdag</t>
+  </si>
+  <si>
+    <t>Introductie</t>
+  </si>
+  <si>
+    <t>4/18/2016</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Opdracht meebenken en aanvullen met het opzetten van waarmee we gaan werken.</t>
+  </si>
+  <si>
+    <t>Heb de plek en tijd besproken om dit te doen</t>
+  </si>
+  <si>
+    <t>4/19/2016</t>
+  </si>
+  <si>
+    <t>Tutor en opdrachtgever gesprekken gehad, meningen gegeven over de opdracht. Daarna begonnen aan het developpen van de bot, mede door mijn groepsleden de taal bekend te maken</t>
+  </si>
+  <si>
+    <t>Kwam beetje te laat (5 min) wegens bus tijden.</t>
+  </si>
+  <si>
+    <t>4/20/2016</t>
+  </si>
+  <si>
+    <t>Grote progressie gemaakt met de bot, taakverdeling opgeschoven van het programmeren.  Commands veranderd zodat de bot reageerd op wat er gezegd wordt</t>
+  </si>
+  <si>
+    <t>Meeste van het werk wordt samen met een willekeurig andere stundend gedaan, omdat ik het meeste ervaring heb doe ik begeleiden werk, zodat iedereen even programmeerd</t>
+  </si>
+  <si>
+    <t>4/21/2016</t>
+  </si>
+  <si>
+    <t>Donderdag</t>
+  </si>
+  <si>
+    <t>Uitzieken</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>Gesprek Opdrachtgever en Tutor + Userstories aangemaakt + Logboek gemaakt + Github repository gestart + Trello</t>
+  </si>
+  <si>
+    <t>Python code aangepast, zodat hij strings leest en onderdelen pakt en daar op antwoord.</t>
+  </si>
+  <si>
+    <t>Woensdag ochtend geen auto beschikbaar.</t>
+  </si>
+  <si>
+    <t>Zelftest gemaakt en logboek bijgewerkt.</t>
+  </si>
+  <si>
+    <t>Huiswerkdag.</t>
+  </si>
+  <si>
+    <t>Zinnen gemaakt en keywords.</t>
+  </si>
+  <si>
+    <t>Tussen gesprekken door samen met groep gewerkt</t>
+  </si>
+  <si>
+    <t>Website afgemaakt de rest van de dag.</t>
+  </si>
+  <si>
+    <t>Koningsdag.</t>
+  </si>
+  <si>
+    <t>Koningsdag</t>
+  </si>
+  <si>
+    <t>13/4/2016</t>
+  </si>
+  <si>
+    <t>Introductie tot het project en ontmoeting tussen groepsleden en tutor</t>
+  </si>
+  <si>
+    <t>18/4/2016</t>
+  </si>
+  <si>
+    <t>Idee bedenken met groepsleden</t>
+  </si>
+  <si>
+    <t>Hele dag les kon niet werken aan project</t>
+  </si>
+  <si>
+    <t>19/4/2016</t>
+  </si>
+  <si>
+    <t>Gesprek opdrachtgever en tutor en begin gemaakt aan project</t>
+  </si>
+  <si>
+    <t>20/4/2016</t>
+  </si>
+  <si>
+    <t>Bot aangemaakt, code geschreven, logboek bijgehouden en taken verdeeld</t>
+  </si>
+  <si>
+    <t>21/4/2016</t>
+  </si>
+  <si>
+    <t>Zelftest en logboek</t>
+  </si>
+  <si>
+    <t>Huiswerkdag</t>
+  </si>
+  <si>
+    <t>22/4/2016</t>
+  </si>
+  <si>
+    <t>Vrijdag</t>
+  </si>
+  <si>
+    <t>Ziek ivm amandelontsteking</t>
+  </si>
+  <si>
+    <t>25/4/2016</t>
+  </si>
+  <si>
+    <t>26/4/2016</t>
+  </si>
+  <si>
+    <t>ToDo lijst bijgewerkt, Code geschreven, gesprek met tutor en opdrachtgever</t>
+  </si>
+  <si>
+    <t>Om 3 uur werken</t>
+  </si>
+  <si>
+    <t>Opdracht bedenken en omschrijven</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Dictaat en planningschema doorgelezen + Start gemaakt met het functioneel ontwerp + Aanvraag verzetten deadline 6 mei FO + e-mail opdrachtgever vragen naar randvoorwaarden en overige eisen en wensen.</t>
   </si>
   <si>
     <t xml:space="preserve">Kon 's ochtends niet aanwezig zijn i.v.m. geplande interviews andere opleiding. </t>
@@ -248,22 +247,42 @@
     <t xml:space="preserve">Procesverslag geschreven </t>
   </si>
   <si>
-    <t xml:space="preserve">Feedback van opdrachtgever in FO verwerkt + Wireframes gemaakt + FO Opgestuurd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest van de week besteeds aan Portfolio en Practicum opdrachten</t>
+    <t>Feedback van opdrachtgever in FO verwerkt + Wireframes gemaakt + FO Opgestuurd</t>
+  </si>
+  <si>
+    <t>Rest van de week besteeds aan Portfolio en Practicum opdrachten</t>
+  </si>
+  <si>
+    <t>27/4/2016</t>
+  </si>
+  <si>
+    <t>28/4/2016</t>
+  </si>
+  <si>
+    <t>Huiswerk en aan code gewerkt</t>
+  </si>
+  <si>
+    <t>29/4/2016</t>
+  </si>
+  <si>
+    <t>Huiswerk en ToDo bijgewerkt</t>
+  </si>
+  <si>
+    <t>Week vrij</t>
+  </si>
+  <si>
+    <t>Code aangepast zodat er een dictionary instaat. Logboek bijgewerkt. Gesprekken gehad met opdrachtgever en tutor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,22 +291,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -302,30 +306,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FFED7D31"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -334,7 +320,7 @@
       <family val="2"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -368,188 +354,149 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Accent2" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -608,13 +555,26 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -628,241 +588,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7560" y="0"/>
-          <a:ext cx="9488160" cy="555840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>LOGBOEK </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Wander van der Wal</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2485440</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7560" y="0"/>
-          <a:ext cx="9488160" cy="555840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>LOGBOEK </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Reinder Henstra</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2485440</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -892,20 +618,21 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -918,13 +645,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -932,26 +659,262 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Wander van der Wal</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2485440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7560" y="0"/>
+          <a:ext cx="9488160" cy="555840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LOGBOEK </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Reinder Henstra</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2352090</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7560" y="0"/>
+          <a:ext cx="9488160" cy="555840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LOGBOEK </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Geart Otten</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -965,7 +928,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -979,7 +942,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1009,20 +972,21 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1035,13 +999,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -1049,26 +1013,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Ruud Haertlein</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1081,36 +1045,318 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="17.42578125" style="1"/>
+    <col min="2" max="3" width="17.5703125" style="1"/>
+    <col min="4" max="4" width="8.5703125" style="1"/>
+    <col min="5" max="5" width="38.140625" style="1"/>
+    <col min="6" max="6" width="35.28515625" style="1"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1123,25 +1369,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1151,17 +1397,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1169,17 +1415,17 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1189,17 +1435,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1209,17 +1455,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1229,23 +1475,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>16</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1253,7 +1499,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1261,7 +1507,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1269,7 +1515,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1277,7 +1523,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1285,7 +1531,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1293,7 +1539,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1301,7 +1547,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1309,7 +1555,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1317,7 +1563,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1325,7 +1571,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1333,7 +1579,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1341,7 +1587,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1349,7 +1595,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1357,7 +1603,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1365,7 +1611,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1373,7 +1619,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1381,7 +1627,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1389,7 +1635,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1397,7 +1643,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1405,7 +1651,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1413,7 +1659,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1421,7 +1667,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1429,7 +1675,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1437,7 +1683,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1445,7 +1691,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1453,7 +1699,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1461,7 +1707,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1469,7 +1715,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1477,7 +1723,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1485,7 +1731,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1493,7 +1739,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1501,7 +1747,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1509,7 +1755,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1517,7 +1763,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1525,7 +1771,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1533,7 +1779,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1541,7 +1787,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1549,7 +1795,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1558,47 +1804,39 @@
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="17.42578125" style="1"/>
+    <col min="2" max="3" width="17.5703125" style="1"/>
+    <col min="4" max="4" width="8.5703125" style="1"/>
+    <col min="5" max="5" width="38.140625" style="1"/>
+    <col min="6" max="6" width="35.28515625" style="1"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1611,25 +1849,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1639,17 +1877,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>42473</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1657,17 +1895,17 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>42478</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1677,17 +1915,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>42479</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1695,17 +1933,17 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>42114</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1715,17 +1953,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>42115</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>16</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1735,17 +1973,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>42485</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="13">
         <v>17</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1753,17 +1991,17 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>42486</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="13">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="13">
         <v>5</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -1773,17 +2011,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="n">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>42487</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="16">
         <v>17</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="16">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1793,7 +2031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1801,7 +2039,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1809,7 +2047,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1817,7 +2055,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1825,7 +2063,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1833,7 +2071,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1841,7 +2079,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1849,7 +2087,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1857,7 +2095,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1865,7 +2103,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1873,7 +2111,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1881,7 +2119,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1889,7 +2127,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1897,7 +2135,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1905,7 +2143,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1913,7 +2151,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1921,7 +2159,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1929,7 +2167,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1937,7 +2175,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1945,7 +2183,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1953,7 +2191,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1961,7 +2199,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1969,7 +2207,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1977,7 +2215,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1985,7 +2223,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1993,7 +2231,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2001,7 +2239,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2009,7 +2247,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2017,7 +2255,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2025,7 +2263,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2033,7 +2271,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2041,7 +2279,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2049,7 +2287,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2057,7 +2295,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2065,7 +2303,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2073,7 +2311,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2082,47 +2320,39 @@
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="17.42578125" style="1"/>
+    <col min="2" max="3" width="17.5703125" style="1"/>
+    <col min="4" max="4" width="8.5703125" style="17"/>
+    <col min="5" max="5" width="38.140625" style="1"/>
+    <col min="6" max="6" width="35.28515625" style="1"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2135,25 +2365,25 @@
       <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="20">
         <v>15</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -2161,17 +2391,17 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="22">
         <v>16</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
@@ -2181,17 +2411,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="22">
         <v>16</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="23">
         <v>4</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -2199,17 +2429,17 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="22">
         <v>16</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="23">
         <v>4</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -2217,17 +2447,17 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="22">
         <v>16</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
       <c r="E10" s="22" t="s">
@@ -2237,17 +2467,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="22">
         <v>16</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="23">
         <v>0</v>
       </c>
       <c r="E11" s="22"/>
@@ -2255,17 +2485,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="22">
         <v>17</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="23">
         <v>0</v>
       </c>
       <c r="E12" s="22"/>
@@ -2273,17 +2503,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22" t="n">
+      <c r="C13" s="22">
         <v>17</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="23">
         <v>3</v>
       </c>
       <c r="E13" s="22" t="s">
@@ -2293,55 +2523,115 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="22">
+        <v>17</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="22">
+        <v>17</v>
+      </c>
+      <c r="D15" s="23">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="22">
+        <v>17</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="C17" s="22">
+        <v>18</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>42618</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="22">
+        <v>20</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22"/>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>42648</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="22">
+        <v>20</v>
+      </c>
+      <c r="D19" s="23">
+        <v>4</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2349,7 +2639,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -2357,7 +2647,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2365,7 +2655,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -2373,7 +2663,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -2381,7 +2671,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2389,7 +2679,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2397,7 +2687,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2405,7 +2695,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2413,7 +2703,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2421,7 +2711,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2429,7 +2719,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2437,7 +2727,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2445,7 +2735,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2453,7 +2743,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2461,7 +2751,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2469,7 +2759,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2477,7 +2767,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2485,7 +2775,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2493,7 +2783,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2501,7 +2791,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2509,7 +2799,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2517,7 +2807,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2525,7 +2815,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2533,7 +2823,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2541,7 +2831,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2549,7 +2839,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2557,7 +2847,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2565,7 +2855,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2573,7 +2863,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2581,7 +2871,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2590,47 +2880,39 @@
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="17.42578125" style="1"/>
+    <col min="2" max="3" width="17.5703125" style="1"/>
+    <col min="4" max="4" width="8.5703125" style="1"/>
+    <col min="5" max="5" width="38.140625" style="1"/>
+    <col min="6" max="6" width="35.28515625" style="1"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2643,25 +2925,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2671,17 +2953,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>42473</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="12">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -2689,17 +2971,17 @@
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="n">
+    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>42478</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="12">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -2707,17 +2989,17 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="n">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>42479</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="12">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="12">
         <v>4</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -2725,14 +3007,14 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="n">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>42480</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="12">
         <v>16</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -2745,17 +3027,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>42481</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="12">
         <v>16</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="12">
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -2763,17 +3045,17 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="n">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>42485</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="12">
         <v>17</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2781,17 +3063,17 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="n">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
         <v>42486</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="12">
         <v>17</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="12">
         <v>5</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -2801,7 +3083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>36</v>
       </c>
@@ -2821,7 +3103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2829,7 +3111,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2837,7 +3119,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2845,7 +3127,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2853,7 +3135,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2861,7 +3143,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2869,7 +3151,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2877,7 +3159,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2885,7 +3167,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2893,7 +3175,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2901,7 +3183,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2909,7 +3191,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2917,7 +3199,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2925,7 +3207,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2933,7 +3215,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2941,7 +3223,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2949,7 +3231,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2957,7 +3239,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2965,7 +3247,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2973,7 +3255,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2981,7 +3263,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2989,7 +3271,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2997,7 +3279,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3005,7 +3287,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3013,7 +3295,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3021,7 +3303,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3029,7 +3311,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3037,7 +3319,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3045,7 +3327,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3053,7 +3335,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3061,7 +3343,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3069,7 +3351,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3077,7 +3359,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3085,7 +3367,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3093,7 +3375,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3101,7 +3383,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -3110,13 +3392,8 @@
       <c r="F50" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\Informatica\P4P NHL-Helpdeskbot\Logboek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wander" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Geart" sheetId="3" r:id="rId3"/>
     <sheet name="Ruud" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
   <si>
     <t>Datum</t>
   </si>
@@ -273,16 +278,34 @@
   <si>
     <t>Code aangepast zodat er een dictionary instaat. Logboek bijgewerkt. Gesprekken gehad met opdrachtgever en tutor</t>
   </si>
+  <si>
+    <t>30-8/5/2016</t>
+  </si>
+  <si>
+    <t>meivakantie</t>
+  </si>
+  <si>
+    <t>Tussenrapport afgemaakt</t>
+  </si>
+  <si>
+    <t>2e pinksterdag</t>
+  </si>
+  <si>
+    <t>Procesverslag, logboek, gesprekken met tutor en opdrachtgever,</t>
+  </si>
+  <si>
+    <t>Gesprek opdrachtgever en tutor. Daarvoor begonnen met het tussenrapport mailen van studentenloket en afspraak maken middelbare school testen bot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,8 +349,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +379,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -409,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,12 +484,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -450,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -489,6 +528,35 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,10 +632,16 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFED7D31"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -938,7 +1012,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2485440</xdr:colOff>
+      <xdr:colOff>2409240</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
@@ -1088,7 +1162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1121,9 +1195,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1156,6 +1247,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1338,17 +1446,17 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1"/>
-    <col min="2" max="3" width="17.5703125" style="1"/>
-    <col min="4" max="4" width="8.5703125" style="1"/>
-    <col min="5" max="5" width="38.140625" style="1"/>
-    <col min="6" max="6" width="35.28515625" style="1"/>
-    <col min="7" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="17.44140625" style="1"/>
+    <col min="2" max="3" width="17.5546875" style="1"/>
+    <col min="4" max="4" width="8.5546875" style="1"/>
+    <col min="5" max="5" width="38.109375" style="1"/>
+    <col min="6" max="6" width="35.33203125" style="1"/>
+    <col min="7" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -1356,7 +1464,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1485,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1523,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1491,7 +1599,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1499,7 +1607,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1507,7 +1615,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1515,7 +1623,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1523,7 +1631,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1531,7 +1639,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1539,7 +1647,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1547,7 +1655,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1555,7 +1663,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1563,7 +1671,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1571,7 +1679,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1579,7 +1687,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1587,7 +1695,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1595,7 +1703,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1603,7 +1711,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1611,7 +1719,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1619,7 +1727,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1627,7 +1735,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1635,7 +1743,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1643,7 +1751,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1651,7 +1759,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1659,7 +1767,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1667,7 +1775,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1675,7 +1783,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1683,7 +1791,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1691,7 +1799,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1699,7 +1807,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1707,7 +1815,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1715,7 +1823,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1723,7 +1831,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1731,7 +1839,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1739,7 +1847,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1747,7 +1855,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1755,7 +1863,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1763,7 +1871,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1771,7 +1879,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1779,7 +1887,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1787,7 +1895,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1795,7 +1903,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1815,29 +1923,29 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1"/>
-    <col min="2" max="3" width="17.5703125" style="1"/>
-    <col min="4" max="4" width="8.5703125" style="1"/>
-    <col min="5" max="5" width="38.140625" style="1"/>
-    <col min="6" max="6" width="35.28515625" style="1"/>
-    <col min="7" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="17.44140625" style="28"/>
+    <col min="2" max="3" width="17.5546875" style="1"/>
+    <col min="4" max="4" width="8.5546875" style="1"/>
+    <col min="5" max="5" width="38.109375" style="1"/>
+    <col min="6" max="6" width="35.33203125" style="1"/>
+    <col min="7" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1857,7 +1965,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1877,8 +1985,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>42473</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1895,8 +2003,8 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
         <v>42478</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1915,8 +2023,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
         <v>42479</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1933,8 +2041,8 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
         <v>42114</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1953,8 +2061,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
         <v>42115</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1973,17 +2081,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
         <v>42485</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>17</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1991,37 +2099,37 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
         <v>42486</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>17</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>5</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <v>42487</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>17</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="13">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -2031,288 +2139,288 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2330,21 +2438,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1"/>
-    <col min="2" max="3" width="17.5703125" style="1"/>
-    <col min="4" max="4" width="8.5703125" style="17"/>
-    <col min="5" max="5" width="38.140625" style="1"/>
-    <col min="6" max="6" width="35.28515625" style="1"/>
-    <col min="7" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="17.44140625" style="1"/>
+    <col min="2" max="3" width="17.5546875" style="1"/>
+    <col min="4" max="4" width="8.5546875" style="14"/>
+    <col min="5" max="5" width="38.109375" style="1"/>
+    <col min="6" max="6" width="35.33203125" style="1"/>
+    <col min="7" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2352,7 +2460,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2470,7 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
@@ -2373,509 +2481,512 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>15</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>16</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="19">
         <v>16</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>4</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>16</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>4</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <v>16</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>16</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>0</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>17</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>0</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <v>17</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>3</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="19">
         <v>17</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>0</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="19">
         <v>17</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <v>2</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <v>17</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="19" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19">
         <v>18</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>42618</v>
-      </c>
-      <c r="B18" s="22" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>42133</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>20</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="20">
         <v>0</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>42648</v>
-      </c>
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>42500</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>20</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="20">
         <v>4</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20">
+        <f>SUM(D6:D19)</f>
+        <v>22</v>
+      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="24"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="24"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="24"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="24"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="24"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="24"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="24"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="24"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="24"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="24"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="24"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="24"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
@@ -2890,21 +3001,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1"/>
-    <col min="2" max="3" width="17.5703125" style="1"/>
-    <col min="4" max="4" width="8.5703125" style="1"/>
-    <col min="5" max="5" width="38.140625" style="1"/>
-    <col min="6" max="6" width="35.28515625" style="1"/>
-    <col min="7" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="17.44140625" style="1"/>
+    <col min="2" max="3" width="17.5546875" style="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="1"/>
+    <col min="6" max="6" width="35.33203125" style="1"/>
+    <col min="7" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2912,7 +3023,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +3044,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2953,447 +3064,499 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
         <v>42473</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>15</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
         <v>42478</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>16</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
         <v>42479</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>16</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>4</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
         <v>42480</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
         <v>42481</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>16</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
         <v>42485</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>17</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
         <v>42486</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>17</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>5</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>42487</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+    </row>
+    <row r="15" spans="1:7" s="30" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>42500</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>42501</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32">
+        <v>42506</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>42507</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\Informatica\P4P NHL-Helpdeskbot\Logboek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="987" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Wander" sheetId="1" r:id="rId1"/>
-    <sheet name="Reinder" sheetId="2" r:id="rId2"/>
-    <sheet name="Geart" sheetId="3" r:id="rId3"/>
-    <sheet name="Ruud" sheetId="4" r:id="rId4"/>
+    <sheet name="Wander" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Reinder" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Geart" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Ruud" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,23 +23,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>dag</t>
-  </si>
-  <si>
-    <t>Weeknummer</t>
-  </si>
-  <si>
-    <t>Gewerkt in uren</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weeknummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewerkt in uren</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
@@ -66,7 +62,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
@@ -87,163 +83,220 @@
     </r>
   </si>
   <si>
-    <t>vb: 19/04/2016</t>
-  </si>
-  <si>
-    <t>Dinsdag</t>
-  </si>
-  <si>
-    <t>Rondjes gelopen</t>
-  </si>
-  <si>
-    <t>Ik was zenuwachtig</t>
-  </si>
-  <si>
-    <t>4/13/2016</t>
-  </si>
-  <si>
-    <t>Woensdag</t>
-  </si>
-  <si>
-    <t>Introductie</t>
-  </si>
-  <si>
-    <t>4/18/2016</t>
-  </si>
-  <si>
-    <t>Maandag</t>
-  </si>
-  <si>
-    <t>Opdracht meebenken en aanvullen met het opzetten van waarmee we gaan werken.</t>
-  </si>
-  <si>
-    <t>Heb de plek en tijd besproken om dit te doen</t>
-  </si>
-  <si>
-    <t>4/19/2016</t>
-  </si>
-  <si>
-    <t>Tutor en opdrachtgever gesprekken gehad, meningen gegeven over de opdracht. Daarna begonnen aan het developpen van de bot, mede door mijn groepsleden de taal bekend te maken</t>
-  </si>
-  <si>
-    <t>Kwam beetje te laat (5 min) wegens bus tijden.</t>
-  </si>
-  <si>
-    <t>4/20/2016</t>
-  </si>
-  <si>
-    <t>Grote progressie gemaakt met de bot, taakverdeling opgeschoven van het programmeren.  Commands veranderd zodat de bot reageerd op wat er gezegd wordt</t>
-  </si>
-  <si>
-    <t>Meeste van het werk wordt samen met een willekeurig andere stundend gedaan, omdat ik het meeste ervaring heb doe ik begeleiden werk, zodat iedereen even programmeerd</t>
-  </si>
-  <si>
-    <t>4/21/2016</t>
-  </si>
-  <si>
-    <t>Donderdag</t>
-  </si>
-  <si>
-    <t>Uitzieken</t>
-  </si>
-  <si>
-    <t>Ziek</t>
-  </si>
-  <si>
-    <t>Gesprek Opdrachtgever en Tutor + Userstories aangemaakt + Logboek gemaakt + Github repository gestart + Trello</t>
-  </si>
-  <si>
-    <t>Python code aangepast, zodat hij strings leest en onderdelen pakt en daar op antwoord.</t>
-  </si>
-  <si>
-    <t>Woensdag ochtend geen auto beschikbaar.</t>
-  </si>
-  <si>
-    <t>Zelftest gemaakt en logboek bijgewerkt.</t>
-  </si>
-  <si>
-    <t>Huiswerkdag.</t>
-  </si>
-  <si>
-    <t>Zinnen gemaakt en keywords.</t>
-  </si>
-  <si>
-    <t>Tussen gesprekken door samen met groep gewerkt</t>
-  </si>
-  <si>
-    <t>Website afgemaakt de rest van de dag.</t>
-  </si>
-  <si>
-    <t>Koningsdag.</t>
-  </si>
-  <si>
-    <t>Koningsdag</t>
-  </si>
-  <si>
-    <t>13/4/2016</t>
-  </si>
-  <si>
-    <t>Introductie tot het project en ontmoeting tussen groepsleden en tutor</t>
-  </si>
-  <si>
-    <t>18/4/2016</t>
-  </si>
-  <si>
-    <t>Idee bedenken met groepsleden</t>
-  </si>
-  <si>
-    <t>Hele dag les kon niet werken aan project</t>
-  </si>
-  <si>
-    <t>19/4/2016</t>
-  </si>
-  <si>
-    <t>Gesprek opdrachtgever en tutor en begin gemaakt aan project</t>
-  </si>
-  <si>
-    <t>20/4/2016</t>
-  </si>
-  <si>
-    <t>Bot aangemaakt, code geschreven, logboek bijgehouden en taken verdeeld</t>
-  </si>
-  <si>
-    <t>21/4/2016</t>
-  </si>
-  <si>
-    <t>Zelftest en logboek</t>
-  </si>
-  <si>
-    <t>Huiswerkdag</t>
-  </si>
-  <si>
-    <t>22/4/2016</t>
-  </si>
-  <si>
-    <t>Vrijdag</t>
-  </si>
-  <si>
-    <t>Ziek ivm amandelontsteking</t>
-  </si>
-  <si>
-    <t>25/4/2016</t>
-  </si>
-  <si>
-    <t>26/4/2016</t>
-  </si>
-  <si>
-    <t>ToDo lijst bijgewerkt, Code geschreven, gesprek met tutor en opdrachtgever</t>
-  </si>
-  <si>
-    <t>Om 3 uur werken</t>
-  </si>
-  <si>
-    <t>Opdracht bedenken en omschrijven</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>Dictaat en planningschema doorgelezen + Start gemaakt met het functioneel ontwerp + Aanvraag verzetten deadline 6 mei FO + e-mail opdrachtgever vragen naar randvoorwaarden en overige eisen en wensen.</t>
+    <t xml:space="preserve">vb: 19/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinsdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rondjes gelopen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik was zenuwachtig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woensdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introductie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maandag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opdracht meebenken en aanvullen met het opzetten van waarmee we gaan werken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heb de plek en tijd besproken om dit te doen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutor en opdrachtgever gesprekken gehad, meningen gegeven over de opdracht. Daarna begonnen aan het developpen van de bot, mede door mijn groepsleden de taal bekend te maken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwam beetje te laat (5 min) wegens bus tijden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grote progressie gemaakt met de bot, taakverdeling opgeschoven van het programmeren.  Commands veranderd zodat de bot reageerd op wat er gezegd wordt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeste van het werk wordt samen met een willekeurig andere stundend gedaan, omdat ik het meeste ervaring heb doe ik begeleiden werk, zodat iedereen even programmeerd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donderdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uitzieken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesprek Opdrachtgever en Tutor + Userstories aangemaakt + Logboek gemaakt + Github repository gestart + Trello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python code aangepast, zodat hij strings leest en onderdelen pakt en daar op antwoord.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woensdag ochtend geen auto beschikbaar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zelftest gemaakt en logboek bijgewerkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huiswerkdag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinnen gemaakt en keywords.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tussen gesprekken door samen met groep gewerkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website afgemaakt de rest van de dag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koningsdag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koningsdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezig geweest met project en huiswerk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meer vragen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huiswerk inleveren en nog wat besproken met groep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week vrij.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lessen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezig geweest met project en gesprekken met Tutor en Project begeleider. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezig geweest met Handleiding en het commentaar verwerkt in code/planning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezig geweest met huiswerk en nog even aan het project gewerkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veel dingen afgetekend en wat dingen besproken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maandag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinkstermaandag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logboek aangepast en gespekken met tutor en project begeleider.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introductie tot het project en ontmoeting tussen groepsleden en tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idee bedenken met groepsleden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hele dag les kon niet werken aan project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesprek opdrachtgever en tutor en begin gemaakt aan project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot aangemaakt, code geschreven, logboek bijgehouden en taken verdeeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zelftest en logboek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huiswerkdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziek ivm amandelontsteking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ToDo lijst bijgewerkt, Code geschreven, gesprek met tutor en opdrachtgever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om 3 uur werken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huiswerk en aan code gewerkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/4/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huiswerk en ToDo bijgewerkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week vrij</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code aangepast zodat er een dictionary instaat. Logboek bijgewerkt. Gesprekken gehad met opdrachtgever en tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opdracht bedenken en omschrijven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictaat en planningschema doorgelezen + Start gemaakt met het functioneel ontwerp + Aanvraag verzetten deadline 6 mei FO + e-mail opdrachtgever vragen naar randvoorwaarden en overige eisen en wensen.</t>
   </si>
   <si>
     <t xml:space="preserve">Kon 's ochtends niet aanwezig zijn i.v.m. geplande interviews andere opleiding. </t>
@@ -252,60 +305,41 @@
     <t xml:space="preserve">Procesverslag geschreven </t>
   </si>
   <si>
-    <t>Feedback van opdrachtgever in FO verwerkt + Wireframes gemaakt + FO Opgestuurd</t>
-  </si>
-  <si>
-    <t>Rest van de week besteeds aan Portfolio en Practicum opdrachten</t>
-  </si>
-  <si>
-    <t>27/4/2016</t>
-  </si>
-  <si>
-    <t>28/4/2016</t>
-  </si>
-  <si>
-    <t>Huiswerk en aan code gewerkt</t>
-  </si>
-  <si>
-    <t>29/4/2016</t>
-  </si>
-  <si>
-    <t>Huiswerk en ToDo bijgewerkt</t>
-  </si>
-  <si>
-    <t>Week vrij</t>
-  </si>
-  <si>
-    <t>Code aangepast zodat er een dictionary instaat. Logboek bijgewerkt. Gesprekken gehad met opdrachtgever en tutor</t>
-  </si>
-  <si>
-    <t>30-8/5/2016</t>
-  </si>
-  <si>
-    <t>meivakantie</t>
-  </si>
-  <si>
-    <t>Tussenrapport afgemaakt</t>
-  </si>
-  <si>
-    <t>2e pinksterdag</t>
-  </si>
-  <si>
-    <t>Procesverslag, logboek, gesprekken met tutor en opdrachtgever,</t>
-  </si>
-  <si>
-    <t>Gesprek opdrachtgever en tutor. Daarvoor begonnen met het tussenrapport mailen van studentenloket en afspraak maken middelbare school testen bot</t>
+    <t xml:space="preserve">Feedback van opdrachtgever in FO verwerkt + Wireframes gemaakt + FO Opgestuurd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest van de week besteeds aan Portfolio en Practicum opdrachten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-8/5/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meivakantie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesprek opdrachtgever en tutor. Daarvoor begonnen met het tussenrapport mailen van studentenloket en afspraak maken middelbare school testen bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tussenrapport afgemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e pinksterdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesverslag, logboek, gesprekken met tutor en opdrachtgever,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,7 +348,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -329,7 +378,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FFED7D31"/>
       <name val="Calibri"/>
@@ -337,27 +386,32 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,187 +438,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFAC090"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="31">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -606,7 +683,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFAC090"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -623,32 +700,13 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FFED7D31"/>
-    </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -657,25 +715,27 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2485440</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7560" y="0"/>
-          <a:ext cx="9488160" cy="555840"/>
+          <a:ext cx="9373320" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:round/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -692,21 +752,20 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -719,13 +778,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="ffffff"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -733,26 +792,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="ffffff"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Wander van der Wal</a:t>
           </a:r>
-          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -766,7 +825,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -775,25 +834,27 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2485440</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7560" y="0"/>
-          <a:ext cx="9488160" cy="555840"/>
+          <a:ext cx="9373320" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:round/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -810,21 +871,20 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -837,13 +897,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="ffffff"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -851,26 +911,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="ffffff"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Reinder Henstra</a:t>
           </a:r>
-          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -884,7 +944,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -894,11 +954,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2352090</xdr:colOff>
+      <xdr:colOff>2351880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -906,12 +966,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7560" y="0"/>
-          <a:ext cx="9488160" cy="555840"/>
+          <a:ext cx="9240120" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:round/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -928,21 +990,20 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -955,13 +1016,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="ffffff"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -969,26 +1030,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="ffffff"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Geart Otten</a:t>
           </a:r>
-          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1002,7 +1063,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1012,11 +1073,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2409240</xdr:colOff>
+      <xdr:colOff>2408760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1024,12 +1085,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7560" y="0"/>
-          <a:ext cx="9488160" cy="555840"/>
+          <a:ext cx="9306720" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:round/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1046,21 +1109,20 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1073,13 +1135,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="ffffff"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -1087,26 +1149,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="ffffff"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Ruud Haertlein</a:t>
           </a:r>
-          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1119,352 +1181,36 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1"/>
-    <col min="2" max="3" width="17.5546875" style="1"/>
-    <col min="4" max="4" width="8.5546875" style="1"/>
-    <col min="5" max="5" width="38.109375" style="1"/>
-    <col min="6" max="6" width="35.33203125" style="1"/>
-    <col min="7" max="1025" width="8.5546875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-    </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1477,25 +1223,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1505,17 +1251,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1523,17 +1269,17 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1543,17 +1289,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1563,17 +1309,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1583,23 +1329,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1607,7 +1353,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1615,7 +1361,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1623,7 +1369,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1631,7 +1377,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1639,7 +1385,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1647,7 +1393,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1655,7 +1401,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1663,7 +1409,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1671,7 +1417,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1679,7 +1425,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1687,7 +1433,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1695,7 +1441,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1703,7 +1449,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1711,7 +1457,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1719,7 +1465,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1727,7 +1473,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1735,7 +1481,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1743,7 +1489,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1751,7 +1497,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1759,7 +1505,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1767,7 +1513,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1775,7 +1521,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1783,7 +1529,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1791,7 +1537,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1799,7 +1545,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1807,7 +1553,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1815,7 +1561,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1823,7 +1569,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1831,7 +1577,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1839,7 +1585,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1847,7 +1593,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1855,7 +1601,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1863,7 +1609,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1871,7 +1617,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1879,7 +1625,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1887,7 +1633,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1895,7 +1641,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1903,7 +1649,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1912,40 +1658,48 @@
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="28"/>
-    <col min="2" max="3" width="17.5546875" style="1"/>
-    <col min="4" max="4" width="8.5546875" style="1"/>
-    <col min="5" max="5" width="38.109375" style="1"/>
-    <col min="6" max="6" width="35.33203125" style="1"/>
-    <col min="7" max="1025" width="8.5546875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1957,25 +1711,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1985,17 +1739,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
         <v>42473</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2003,17 +1757,17 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
         <v>42478</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -2023,17 +1777,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
         <v>42479</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -2041,17 +1795,17 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+    <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
         <v>42114</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -2061,17 +1815,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
         <v>42115</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -2081,17 +1835,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+    <row r="12" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
         <v>42485</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="15" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -2099,37 +1853,37 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
         <v>42486</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="n">
         <v>42487</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="17" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -2139,288 +1893,382 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="n">
+        <v>42488</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="n">
+        <v>42499</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18" t="n">
+        <v>42500</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="n">
+        <v>42501</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="n">
+        <v>42502</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18" t="n">
+        <v>42503</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="n">
+        <v>42506</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="n">
+        <v>42507</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="19"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="19"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="19"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="19"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="19"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2428,39 +2276,47 @@
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1"/>
-    <col min="2" max="3" width="17.5546875" style="1"/>
-    <col min="4" max="4" width="8.5546875" style="14"/>
-    <col min="5" max="5" width="38.109375" style="1"/>
-    <col min="6" max="6" width="35.33203125" style="1"/>
-    <col min="7" max="1025" width="8.5546875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-    </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2470,178 +2326,178 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="6" s="8" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>38</v>
+      <c r="E6" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19" t="n">
         <v>4</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19" t="n">
         <v>4</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="19">
+        <v>39</v>
+      </c>
+      <c r="C11" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19" t="n">
         <v>3</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -2649,381 +2505,389 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="19">
+        <v>39</v>
+      </c>
+      <c r="C16" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="19">
+      <c r="C17" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="n">
         <v>42133</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="n">
         <v>42500</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="20">
-        <f>SUM(D6:D19)</f>
+      <c r="D20" s="19" t="n">
+        <f aca="false">SUM(D6:D19)</f>
         <v>22</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="21"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="21"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="21"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="21"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="21"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="21"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="21"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="21"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="21"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="21"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="21"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="21"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="21"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="21"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="21"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="21"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1"/>
-    <col min="2" max="3" width="17.5546875" style="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" style="1"/>
-    <col min="6" max="6" width="35.33203125" style="1"/>
-    <col min="7" max="1025" width="8.5546875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-    </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3036,25 +2900,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3064,147 +2928,147 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
         <v>42473</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
         <v>42478</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="E8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
         <v>42479</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
         <v>42480</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="D10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="n">
         <v>42481</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="E11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
         <v>42485</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="E12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
         <v>42486</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="F13" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23" t="n">
         <v>42487</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="25" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="23" t="s">
@@ -3214,349 +3078,354 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="30" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="29" t="s">
+    <row r="15" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="C15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+      <c r="E15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="n">
         <v>42500</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="E16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="n">
         <v>42501</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="E17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" s="30" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="n">
         <v>42506</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="C18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+      <c r="E18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="n">
         <v>42507</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Wander" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Reinder" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Geart" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Ruud" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Wander" sheetId="1" r:id="rId1"/>
+    <sheet name="Reinder" sheetId="2" r:id="rId2"/>
+    <sheet name="Geart" sheetId="3" r:id="rId3"/>
+    <sheet name="Ruud" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,23 +22,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weeknummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gewerkt in uren</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>dag</t>
+  </si>
+  <si>
+    <t>Weeknummer</t>
+  </si>
+  <si>
+    <t>Gewerkt in uren</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
@@ -62,7 +61,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
@@ -83,220 +82,220 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">vb: 19/04/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinsdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rondjes gelopen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik was zenuwachtig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/13/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woensdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introductie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/18/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maandag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opdracht meebenken en aanvullen met het opzetten van waarmee we gaan werken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heb de plek en tijd besproken om dit te doen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/19/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutor en opdrachtgever gesprekken gehad, meningen gegeven over de opdracht. Daarna begonnen aan het developpen van de bot, mede door mijn groepsleden de taal bekend te maken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwam beetje te laat (5 min) wegens bus tijden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/20/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grote progressie gemaakt met de bot, taakverdeling opgeschoven van het programmeren.  Commands veranderd zodat de bot reageerd op wat er gezegd wordt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeste van het werk wordt samen met een willekeurig andere stundend gedaan, omdat ik het meeste ervaring heb doe ik begeleiden werk, zodat iedereen even programmeerd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/21/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donderdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uitzieken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesprek Opdrachtgever en Tutor + Userstories aangemaakt + Logboek gemaakt + Github repository gestart + Trello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python code aangepast, zodat hij strings leest en onderdelen pakt en daar op antwoord.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woensdag ochtend geen auto beschikbaar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zelftest gemaakt en logboek bijgewerkt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huiswerkdag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinnen gemaakt en keywords.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tussen gesprekken door samen met groep gewerkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website afgemaakt de rest van de dag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koningsdag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koningsdag</t>
+    <t>vb: 19/04/2016</t>
+  </si>
+  <si>
+    <t>Dinsdag</t>
+  </si>
+  <si>
+    <t>Rondjes gelopen</t>
+  </si>
+  <si>
+    <t>Ik was zenuwachtig</t>
+  </si>
+  <si>
+    <t>4/13/2016</t>
+  </si>
+  <si>
+    <t>Woensdag</t>
+  </si>
+  <si>
+    <t>Introductie</t>
+  </si>
+  <si>
+    <t>4/18/2016</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Opdracht meebenken en aanvullen met het opzetten van waarmee we gaan werken.</t>
+  </si>
+  <si>
+    <t>Heb de plek en tijd besproken om dit te doen</t>
+  </si>
+  <si>
+    <t>4/19/2016</t>
+  </si>
+  <si>
+    <t>Tutor en opdrachtgever gesprekken gehad, meningen gegeven over de opdracht. Daarna begonnen aan het developpen van de bot, mede door mijn groepsleden de taal bekend te maken</t>
+  </si>
+  <si>
+    <t>Kwam beetje te laat (5 min) wegens bus tijden.</t>
+  </si>
+  <si>
+    <t>4/20/2016</t>
+  </si>
+  <si>
+    <t>Grote progressie gemaakt met de bot, taakverdeling opgeschoven van het programmeren.  Commands veranderd zodat de bot reageerd op wat er gezegd wordt</t>
+  </si>
+  <si>
+    <t>Meeste van het werk wordt samen met een willekeurig andere stundend gedaan, omdat ik het meeste ervaring heb doe ik begeleiden werk, zodat iedereen even programmeerd</t>
+  </si>
+  <si>
+    <t>4/21/2016</t>
+  </si>
+  <si>
+    <t>Donderdag</t>
+  </si>
+  <si>
+    <t>Uitzieken</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>Gesprek Opdrachtgever en Tutor + Userstories aangemaakt + Logboek gemaakt + Github repository gestart + Trello</t>
+  </si>
+  <si>
+    <t>Python code aangepast, zodat hij strings leest en onderdelen pakt en daar op antwoord.</t>
+  </si>
+  <si>
+    <t>Woensdag ochtend geen auto beschikbaar.</t>
+  </si>
+  <si>
+    <t>Zelftest gemaakt en logboek bijgewerkt.</t>
+  </si>
+  <si>
+    <t>Huiswerkdag.</t>
+  </si>
+  <si>
+    <t>Zinnen gemaakt en keywords.</t>
+  </si>
+  <si>
+    <t>Tussen gesprekken door samen met groep gewerkt</t>
+  </si>
+  <si>
+    <t>Website afgemaakt de rest van de dag.</t>
+  </si>
+  <si>
+    <t>Koningsdag.</t>
+  </si>
+  <si>
+    <t>Koningsdag</t>
   </si>
   <si>
     <t xml:space="preserve">Bezig geweest met project en huiswerk. </t>
   </si>
   <si>
-    <t xml:space="preserve">Meer vragen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vrijdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huiswerk inleveren en nog wat besproken met groep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week vrij.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lessen.</t>
+    <t>Meer vragen.</t>
+  </si>
+  <si>
+    <t>Vrijdag</t>
+  </si>
+  <si>
+    <t>Huiswerk inleveren en nog wat besproken met groep.</t>
+  </si>
+  <si>
+    <t>Week vrij.</t>
+  </si>
+  <si>
+    <t>Lessen.</t>
   </si>
   <si>
     <t xml:space="preserve">Bezig geweest met project en gesprekken met Tutor en Project begeleider. </t>
   </si>
   <si>
-    <t xml:space="preserve">Bezig geweest met Handleiding en het commentaar verwerkt in code/planning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bezig geweest met huiswerk en nog even aan het project gewerkt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veel dingen afgetekend en wat dingen besproken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maandag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinkstermaandag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logboek aangepast en gespekken met tutor en project begeleider.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introductie tot het project en ontmoeting tussen groepsleden en tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idee bedenken met groepsleden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hele dag les kon niet werken aan project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesprek opdrachtgever en tutor en begin gemaakt aan project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot aangemaakt, code geschreven, logboek bijgehouden en taken verdeeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zelftest en logboek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huiswerkdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziek ivm amandelontsteking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ToDo lijst bijgewerkt, Code geschreven, gesprek met tutor en opdrachtgever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Om 3 uur werken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huiswerk en aan code gewerkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/4/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huiswerk en ToDo bijgewerkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week vrij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code aangepast zodat er een dictionary instaat. Logboek bijgewerkt. Gesprekken gehad met opdrachtgever en tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opdracht bedenken en omschrijven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictaat en planningschema doorgelezen + Start gemaakt met het functioneel ontwerp + Aanvraag verzetten deadline 6 mei FO + e-mail opdrachtgever vragen naar randvoorwaarden en overige eisen en wensen.</t>
+    <t>Bezig geweest met Handleiding en het commentaar verwerkt in code/planning.</t>
+  </si>
+  <si>
+    <t>Bezig geweest met huiswerk en nog even aan het project gewerkt.</t>
+  </si>
+  <si>
+    <t>Veel dingen afgetekend en wat dingen besproken.</t>
+  </si>
+  <si>
+    <t>maandag</t>
+  </si>
+  <si>
+    <t>pinkstermaandag</t>
+  </si>
+  <si>
+    <t>Logboek aangepast en gespekken met tutor en project begeleider.</t>
+  </si>
+  <si>
+    <t>13/4/2016</t>
+  </si>
+  <si>
+    <t>Introductie tot het project en ontmoeting tussen groepsleden en tutor</t>
+  </si>
+  <si>
+    <t>18/4/2016</t>
+  </si>
+  <si>
+    <t>Idee bedenken met groepsleden</t>
+  </si>
+  <si>
+    <t>Hele dag les kon niet werken aan project</t>
+  </si>
+  <si>
+    <t>19/4/2016</t>
+  </si>
+  <si>
+    <t>Gesprek opdrachtgever en tutor en begin gemaakt aan project</t>
+  </si>
+  <si>
+    <t>20/4/2016</t>
+  </si>
+  <si>
+    <t>Bot aangemaakt, code geschreven, logboek bijgehouden en taken verdeeld</t>
+  </si>
+  <si>
+    <t>21/4/2016</t>
+  </si>
+  <si>
+    <t>Zelftest en logboek</t>
+  </si>
+  <si>
+    <t>Huiswerkdag</t>
+  </si>
+  <si>
+    <t>22/4/2016</t>
+  </si>
+  <si>
+    <t>Ziek ivm amandelontsteking</t>
+  </si>
+  <si>
+    <t>25/4/2016</t>
+  </si>
+  <si>
+    <t>26/4/2016</t>
+  </si>
+  <si>
+    <t>ToDo lijst bijgewerkt, Code geschreven, gesprek met tutor en opdrachtgever</t>
+  </si>
+  <si>
+    <t>Om 3 uur werken</t>
+  </si>
+  <si>
+    <t>27/4/2016</t>
+  </si>
+  <si>
+    <t>28/4/2016</t>
+  </si>
+  <si>
+    <t>Huiswerk en aan code gewerkt</t>
+  </si>
+  <si>
+    <t>29/4/2016</t>
+  </si>
+  <si>
+    <t>Huiswerk en ToDo bijgewerkt</t>
+  </si>
+  <si>
+    <t>Week vrij</t>
+  </si>
+  <si>
+    <t>Code aangepast zodat er een dictionary instaat. Logboek bijgewerkt. Gesprekken gehad met opdrachtgever en tutor</t>
+  </si>
+  <si>
+    <t>Opdracht bedenken en omschrijven</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Dictaat en planningschema doorgelezen + Start gemaakt met het functioneel ontwerp + Aanvraag verzetten deadline 6 mei FO + e-mail opdrachtgever vragen naar randvoorwaarden en overige eisen en wensen.</t>
   </si>
   <si>
     <t xml:space="preserve">Kon 's ochtends niet aanwezig zijn i.v.m. geplande interviews andere opleiding. </t>
@@ -305,41 +304,96 @@
     <t xml:space="preserve">Procesverslag geschreven </t>
   </si>
   <si>
-    <t xml:space="preserve">Feedback van opdrachtgever in FO verwerkt + Wireframes gemaakt + FO Opgestuurd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest van de week besteeds aan Portfolio en Practicum opdrachten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-8/5/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meivakantie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesprek opdrachtgever en tutor. Daarvoor begonnen met het tussenrapport mailen van studentenloket en afspraak maken middelbare school testen bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tussenrapport afgemaakt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e pinksterdag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procesverslag, logboek, gesprekken met tutor en opdrachtgever,</t>
+    <t>Feedback van opdrachtgever in FO verwerkt + Wireframes gemaakt + FO Opgestuurd</t>
+  </si>
+  <si>
+    <t>Rest van de week besteeds aan Portfolio en Practicum opdrachten</t>
+  </si>
+  <si>
+    <t>30-8/5/2016</t>
+  </si>
+  <si>
+    <t>meivakantie</t>
+  </si>
+  <si>
+    <t>Gesprek opdrachtgever en tutor. Daarvoor begonnen met het tussenrapport mailen van studentenloket en afspraak maken middelbare school testen bot</t>
+  </si>
+  <si>
+    <t>Tussenrapport afgemaakt</t>
+  </si>
+  <si>
+    <t>2e pinksterdag</t>
+  </si>
+  <si>
+    <t>Procesverslag, logboek, gesprekken met tutor en opdrachtgever,</t>
+  </si>
+  <si>
+    <t>Huiswerk</t>
+  </si>
+  <si>
+    <t>Context uitzoeken.</t>
+  </si>
+  <si>
+    <t>18/05/2016</t>
+  </si>
+  <si>
+    <t>17/05/2016</t>
+  </si>
+  <si>
+    <t>16/05/2016</t>
+  </si>
+  <si>
+    <t>13/05/2016</t>
+  </si>
+  <si>
+    <t>19/05/2016</t>
+  </si>
+  <si>
+    <t>20/05/2016</t>
+  </si>
+  <si>
+    <t>23/05/2016</t>
+  </si>
+  <si>
+    <t>24/05/2016</t>
+  </si>
+  <si>
+    <t>25/05/2016</t>
+  </si>
+  <si>
+    <t>26/05/2016</t>
+  </si>
+  <si>
+    <t>27/05/2016</t>
+  </si>
+  <si>
+    <t>30/05/2016</t>
+  </si>
+  <si>
+    <t>31/05/2016</t>
+  </si>
+  <si>
+    <t>Categorien en context toevoegen en uitzoeken. Gesprekken gehad met opdrachtgever en tutor</t>
+  </si>
+  <si>
+    <t>Besloten om meer op huiswerk en andere dingen te focussen, het project is bijna af</t>
+  </si>
+  <si>
+    <t>Premissions op bots uitgezocht</t>
+  </si>
+  <si>
+    <t>Niet aan de bot gewerkt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="167" formatCode="D/M/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -348,22 +402,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -378,7 +417,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FFED7D31"/>
       <name val="Calibri"/>
@@ -386,25 +425,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -444,204 +465,157 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -700,13 +674,26 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -720,9 +707,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -752,20 +739,21 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -778,13 +766,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -792,26 +780,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Wander van der Wal</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -825,7 +813,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -839,9 +827,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -871,20 +859,21 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -897,13 +886,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -911,26 +900,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Reinder Henstra</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -944,7 +933,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -954,11 +943,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2351880</xdr:colOff>
+      <xdr:colOff>2323305</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -990,20 +979,21 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1016,13 +1006,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -1030,26 +1020,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Geart Otten</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1063,7 +1053,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1077,7 +1067,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1109,20 +1099,21 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1135,13 +1126,13 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1800" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1800" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
@@ -1149,26 +1140,26 @@
             <a:t>LOGBOEK </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="nl-NL" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="nl-NL" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Ruud Haertlein</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="nl-NL" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFill>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:uFill>
             <a:latin typeface="Times New Roman"/>
@@ -1181,36 +1172,318 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="17.140625" style="1"/>
+    <col min="2" max="3" width="17.28515625" style="1"/>
+    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="5" max="5" width="37.7109375" style="1"/>
+    <col min="6" max="6" width="34.85546875" style="1"/>
+    <col min="7" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,25 +1496,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1251,17 +1524,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1269,17 +1542,17 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1289,17 +1562,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1309,17 +1582,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1329,23 +1602,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>16</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1353,7 +1626,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1361,7 +1634,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1369,7 +1642,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1377,7 +1650,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1385,7 +1658,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1393,7 +1666,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1401,7 +1674,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1409,7 +1682,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1417,7 +1690,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1425,7 +1698,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1433,7 +1706,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1441,7 +1714,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1449,7 +1722,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1457,7 +1730,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1465,7 +1738,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1473,7 +1746,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1481,7 +1754,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1489,7 +1762,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1497,7 +1770,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1505,7 +1778,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1513,7 +1786,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1521,7 +1794,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1529,7 +1802,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1537,7 +1810,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1545,7 +1818,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1553,7 +1826,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1561,7 +1834,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1569,7 +1842,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1577,7 +1850,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1585,7 +1858,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1593,7 +1866,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1601,7 +1874,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1609,7 +1882,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1617,7 +1890,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1625,7 +1898,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1633,7 +1906,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1641,7 +1914,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1649,7 +1922,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1658,47 +1931,39 @@
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="17.140625" style="9"/>
+    <col min="2" max="3" width="17.28515625" style="1"/>
+    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="5" max="5" width="37.7109375" style="1"/>
+    <col min="6" max="6" width="34.85546875" style="1"/>
+    <col min="7" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1711,25 +1976,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1739,17 +2004,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>42473</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1757,17 +2022,17 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>42478</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1777,17 +2042,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>42479</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1795,17 +2060,17 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>42114</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1815,17 +2080,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>42115</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>16</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1835,17 +2100,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>42485</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="15">
         <v>17</v>
       </c>
-      <c r="D12" s="15" t="n">
+      <c r="D12" s="15">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1853,17 +2118,17 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>42486</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="15">
         <v>17</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="15">
         <v>5</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1873,17 +2138,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>42487</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="17">
         <v>17</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="17">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1893,25 +2158,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>42488</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="7">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="7">
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1921,17 +2186,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="n">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <v>42489</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="7">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1939,7 +2204,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -1949,17 +2214,17 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>42499</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="7">
         <v>19</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1967,17 +2232,17 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="n">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>42500</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="7">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="7">
         <v>4</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1985,17 +2250,17 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="n">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>42501</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="7">
         <v>5</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2003,17 +2268,17 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="n">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <v>42502</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="7">
         <v>19</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -2021,17 +2286,17 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="n">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>42503</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="7">
         <v>19</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -2039,17 +2304,17 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
         <v>42506</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="7">
         <v>20</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -2057,17 +2322,17 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="n">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
         <v>42507</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="7">
         <v>20</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="7">
         <v>3</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -2075,7 +2340,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2083,7 +2348,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2091,7 +2356,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2099,7 +2364,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2107,7 +2372,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2115,7 +2380,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2123,7 +2388,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2131,7 +2396,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2139,7 +2404,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2147,7 +2412,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2155,7 +2420,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2163,7 +2428,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2171,7 +2436,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2179,7 +2444,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2187,7 +2452,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2195,7 +2460,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2203,7 +2468,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2211,7 +2476,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2219,7 +2484,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2227,7 +2492,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2235,7 +2500,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2243,7 +2508,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2251,7 +2516,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2259,7 +2524,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2267,7 +2532,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2276,47 +2541,39 @@
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="17.140625" style="1"/>
+    <col min="2" max="3" width="17.28515625" style="1"/>
+    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="5" max="5" width="37.7109375" style="1"/>
+    <col min="6" max="6" width="34.85546875" style="1"/>
+    <col min="7" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2329,25 +2586,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C6" s="21">
         <v>15</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -2355,17 +2612,17 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="19">
         <v>16</v>
       </c>
-      <c r="D7" s="19" t="n">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
       <c r="E7" s="19" t="s">
@@ -2375,17 +2632,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="19">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="19">
         <v>4</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -2393,17 +2650,17 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="19">
         <v>16</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="19">
         <v>4</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -2411,17 +2668,17 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="19" t="n">
+      <c r="C10" s="19">
         <v>16</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -2431,17 +2688,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="19" t="n">
+      <c r="C11" s="19">
         <v>16</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="19">
         <v>0</v>
       </c>
       <c r="E11" s="19"/>
@@ -2449,17 +2706,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="19" t="n">
+      <c r="C12" s="19">
         <v>17</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="19">
         <v>0</v>
       </c>
       <c r="E12" s="19"/>
@@ -2467,17 +2724,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19" t="n">
+      <c r="C13" s="19">
         <v>17</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="19">
         <v>3</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -2487,17 +2744,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="19" t="n">
+      <c r="C14" s="19">
         <v>17</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="19">
         <v>0</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -2505,17 +2762,17 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="19" t="n">
+      <c r="C15" s="19">
         <v>17</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="19">
         <v>2</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -2523,17 +2780,17 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19" t="n">
+      <c r="C16" s="19">
         <v>17</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="19">
         <v>1</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -2541,15 +2798,15 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="19" t="n">
+      <c r="C17" s="19">
         <v>18</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="19">
         <v>0</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -2559,17 +2816,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="n">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>42133</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="19" t="n">
+      <c r="C18" s="19">
         <v>20</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D18" s="19">
         <v>0</v>
       </c>
       <c r="E18" s="19"/>
@@ -2577,17 +2834,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="n">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>42500</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="19" t="n">
+      <c r="C19" s="19">
         <v>20</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="19">
         <v>4</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -2595,154 +2852,289 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="n">
-        <f aca="false">SUM(D6:D19)</f>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>42679</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="19">
+        <v>20</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>42709</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="19">
+        <v>20</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="19">
+        <v>21</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="19">
+        <v>21</v>
+      </c>
+      <c r="D24" s="19">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="19">
+        <v>21</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="19">
+        <v>21</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="19">
+        <v>21</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="19">
         <v>22</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="19">
+        <v>22</v>
+      </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="19">
+        <v>22</v>
+      </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="19">
+        <v>22</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="19">
+        <v>22</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="19">
+        <v>23</v>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="19">
+        <v>23</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>42375</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="19">
+        <v>23</v>
+      </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>42406</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="19">
+        <v>23</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>42435</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="19">
+        <v>23</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2750,7 +3142,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2758,7 +3150,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2766,7 +3158,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2774,7 +3166,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2782,7 +3174,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2790,7 +3182,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2798,7 +3190,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2806,7 +3198,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2814,7 +3206,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2822,7 +3214,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2830,7 +3222,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2838,7 +3230,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2847,47 +3239,39 @@
       <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="17.140625" style="1"/>
+    <col min="2" max="3" width="17.28515625" style="1"/>
+    <col min="4" max="4" width="8.5703125" style="1"/>
+    <col min="5" max="5" width="37.7109375" style="1"/>
+    <col min="6" max="6" width="34.85546875" style="1"/>
+    <col min="7" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2900,25 +3284,25 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2928,17 +3312,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>42473</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="14">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -2946,17 +3330,17 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>42478</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="14">
         <v>16</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="14">
         <v>2</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -2964,17 +3348,17 @@
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>42479</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="14">
         <v>16</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="14">
         <v>4</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -2982,14 +3366,14 @@
       </c>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>42480</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="14">
         <v>16</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -3002,17 +3386,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>42481</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="14">
         <v>16</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="14">
         <v>3</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -3020,17 +3404,17 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>42485</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="14">
         <v>17</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="14">
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -3038,17 +3422,17 @@
       </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>42486</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="14">
         <v>17</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="14">
         <v>5</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -3058,8 +3442,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
         <v>42487</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -3068,7 +3452,7 @@
       <c r="C14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="25">
         <v>0</v>
       </c>
       <c r="E14" s="23" t="s">
@@ -3078,7 +3462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" s="27" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>82</v>
       </c>
@@ -3088,7 +3472,7 @@
       <c r="C15" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="26" t="n">
+      <c r="D15" s="26">
         <v>0</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -3098,17 +3482,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="n">
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
         <v>42500</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="14">
         <v>19</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="14">
         <v>6</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -3116,17 +3500,17 @@
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
         <v>42501</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="14">
         <v>19</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D17" s="14">
         <v>4</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -3134,8 +3518,8 @@
       </c>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" s="30" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="n">
+    <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <v>42506</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -3144,7 +3528,7 @@
       <c r="C18" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="26" t="n">
+      <c r="D18" s="26">
         <v>0</v>
       </c>
       <c r="E18" s="26" t="s">
@@ -3154,14 +3538,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="n">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
         <v>42507</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="14">
         <v>20</v>
       </c>
       <c r="D19" s="14"/>
@@ -3170,7 +3554,7 @@
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -3178,7 +3562,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -3186,7 +3570,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3194,7 +3578,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3202,7 +3586,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3210,7 +3594,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3218,7 +3602,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3226,7 +3610,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3234,7 +3618,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3242,7 +3626,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3250,7 +3634,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -3258,7 +3642,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -3266,7 +3650,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3274,7 +3658,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3282,7 +3666,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3290,7 +3674,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3298,7 +3682,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3306,7 +3690,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3314,7 +3698,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3322,7 +3706,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3330,7 +3714,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3338,7 +3722,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3346,7 +3730,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3354,7 +3738,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3362,7 +3746,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -3370,7 +3754,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3378,7 +3762,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -3386,7 +3770,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3394,7 +3778,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -3402,7 +3786,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -3410,7 +3794,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -3419,13 +3803,8 @@
       <c r="F50" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>Datum</t>
   </si>
@@ -383,6 +383,18 @@
   </si>
   <si>
     <t>Niet aan de bot gewerkt</t>
+  </si>
+  <si>
+    <t>Testen van bot zijn opties. Gesprekken gehad met opdrachtgever en tutor</t>
+  </si>
+  <si>
+    <t>Testen van bot opties</t>
+  </si>
+  <si>
+    <t>Leren voor toetsen</t>
+  </si>
+  <si>
+    <t>Testen bot.</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
@@ -2551,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,7 +3006,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>96</v>
       </c>
@@ -3004,11 +3016,15 @@
       <c r="C28" s="19">
         <v>22</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="19">
+        <v>3</v>
+      </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>97</v>
       </c>
@@ -3018,8 +3034,12 @@
       <c r="C29" s="19">
         <v>22</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="19">
+        <v>3</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,7 +3053,9 @@
         <v>22</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,7 +3069,9 @@
         <v>22</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,10 +3085,12 @@
         <v>22</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>101</v>
       </c>
@@ -3076,9 +3102,11 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>102</v>
       </c>
@@ -3089,7 +3117,9 @@
         <v>23</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3103,7 +3133,9 @@
         <v>23</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,7 +3149,9 @@
         <v>23</v>
       </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,7 +3165,9 @@
         <v>23</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\Informatica\P4P NHL-Helpdeskbot\Logboek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reinder" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Ruud" sheetId="3" r:id="rId3"/>
     <sheet name="Wander" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
   <si>
     <t>Datum</t>
   </si>
@@ -201,9 +196,6 @@
     <t>Idee bedenken met groepsleden</t>
   </si>
   <si>
-    <t>Hele dag les kon niet werken aan project</t>
-  </si>
-  <si>
     <t>19/4/2016</t>
   </si>
   <si>
@@ -261,9 +253,6 @@
     <t>Code aangepast zodat er een dictionary instaat. Logboek bijgewerkt. Gesprekken gehad met opdrachtgever en tutor</t>
   </si>
   <si>
-    <t>Context uitzoeken.</t>
-  </si>
-  <si>
     <t>17/05/2016</t>
   </si>
   <si>
@@ -282,9 +271,6 @@
     <t>19/05/2016</t>
   </si>
   <si>
-    <t>Niet aan de bot gewerkt</t>
-  </si>
-  <si>
     <t>20/05/2016</t>
   </si>
   <si>
@@ -436,17 +422,40 @@
   </si>
   <si>
     <t>Presentatie gemaakt + puntjes op de i met de code van het programma en antwoorde + vragen.</t>
+  </si>
+  <si>
+    <t>Les dus kon niet veel doen</t>
+  </si>
+  <si>
+    <t>Naar ROC friese poort geweest om meer vragen uit te zoeken.</t>
+  </si>
+  <si>
+    <t>Context uitzoeken voor de bot</t>
+  </si>
+  <si>
+    <t>Vragen ingevoerd</t>
+  </si>
+  <si>
+    <t>Meer vragen ingevoerd</t>
+  </si>
+  <si>
+    <t>Context samen met wander geimplementeerd</t>
+  </si>
+  <si>
+    <t>Samen met wander de context verbeterd en op basis daavan vragen toegevoegd</t>
+  </si>
+  <si>
+    <t>Testen van bot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -683,13 +692,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,8 +936,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2323080</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2552</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
@@ -1566,7 +1575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1580,17 +1589,17 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1"/>
     <col min="2" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="8.21875" style="2"/>
-    <col min="5" max="5" width="37.21875" style="2"/>
-    <col min="6" max="6" width="34.44140625" style="2"/>
-    <col min="7" max="1025" width="8.21875"/>
+    <col min="4" max="4" width="8.28515625" style="2"/>
+    <col min="5" max="5" width="37.28515625" style="2"/>
+    <col min="6" max="6" width="34.42578125" style="2"/>
+    <col min="7" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -1598,7 +1607,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1628,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>42473</v>
       </c>
@@ -1657,7 +1666,7 @@
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>42478</v>
       </c>
@@ -1677,7 +1686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>42479</v>
       </c>
@@ -1695,7 +1704,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>42114</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>42115</v>
       </c>
@@ -1735,7 +1744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>42485</v>
       </c>
@@ -1753,7 +1762,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>42486</v>
       </c>
@@ -1773,47 +1782,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>42487</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="27">
         <v>0</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>42488</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>42489</v>
       </c>
@@ -1851,7 +1860,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
@@ -1861,7 +1870,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>42500</v>
       </c>
@@ -1879,7 +1888,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>42501</v>
       </c>
@@ -1897,7 +1906,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>42502</v>
       </c>
@@ -1915,7 +1924,7 @@
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>42503</v>
       </c>
@@ -1933,7 +1942,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>42506</v>
       </c>
@@ -1941,19 +1950,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" s="27">
         <v>0</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>42507</v>
       </c>
@@ -1971,7 +1980,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>42508</v>
       </c>
@@ -1989,7 +1998,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>42514</v>
       </c>
@@ -2007,7 +2016,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
         <v>42515</v>
       </c>
@@ -2025,7 +2034,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
         <v>42522</v>
       </c>
@@ -2043,7 +2052,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
         <v>42523</v>
       </c>
@@ -2061,7 +2070,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
         <v>42524</v>
       </c>
@@ -2079,25 +2088,25 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D31" s="27">
         <v>0</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2105,7 +2114,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2113,7 +2122,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2121,7 +2130,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2129,7 +2138,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2137,7 +2146,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2145,7 +2154,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2153,7 +2162,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2161,7 +2170,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2169,7 +2178,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2177,7 +2186,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2185,7 +2194,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2193,7 +2202,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2201,7 +2210,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -2209,7 +2218,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2217,7 +2226,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2225,7 +2234,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2233,7 +2242,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2252,21 +2261,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="2"/>
+    <col min="1" max="1" width="16.85546875" style="2"/>
     <col min="2" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="8.21875" style="2"/>
-    <col min="5" max="5" width="37.21875" style="2"/>
-    <col min="6" max="6" width="34.44140625" style="2"/>
-    <col min="7" max="1025" width="8.21875"/>
+    <col min="4" max="4" width="8.28515625" style="2"/>
+    <col min="5" max="5" width="37.28515625" style="2"/>
+    <col min="6" max="6" width="34.42578125" style="2"/>
+    <col min="7" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2274,7 +2283,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
@@ -2313,7 +2322,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -2324,18 +2333,18 @@
         <v>16</v>
       </c>
       <c r="D7" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>7</v>
@@ -2347,13 +2356,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>10</v>
@@ -2365,13 +2374,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>18</v>
@@ -2380,18 +2389,18 @@
         <v>16</v>
       </c>
       <c r="D10" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>26</v>
@@ -2404,12 +2413,12 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>12</v>
@@ -2418,16 +2427,16 @@
         <v>17</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>7</v>
@@ -2439,55 +2448,55 @@
         <v>3</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>42487</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="27">
         <v>0</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>18</v>
@@ -2496,16 +2505,16 @@
         <v>17</v>
       </c>
       <c r="D16" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>26</v>
@@ -2514,14 +2523,14 @@
         <v>17</v>
       </c>
       <c r="D17" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>42500</v>
       </c>
@@ -2535,11 +2544,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>42679</v>
       </c>
@@ -2550,14 +2559,14 @@
         <v>20</v>
       </c>
       <c r="D19" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>42506</v>
       </c>
@@ -2565,21 +2574,21 @@
         <v>12</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="27">
         <v>0</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>7</v>
@@ -2591,13 +2600,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>10</v>
@@ -2606,18 +2615,18 @@
         <v>21</v>
       </c>
       <c r="D22" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>18</v>
@@ -2625,15 +2634,17 @@
       <c r="C23" s="15">
         <v>21</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15">
+        <v>4</v>
+      </c>
       <c r="E23" s="15" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>26</v>
@@ -2641,15 +2652,17 @@
       <c r="C24" s="15">
         <v>21</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15">
+        <v>4</v>
+      </c>
       <c r="E24" s="15" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>12</v>
@@ -2657,13 +2670,17 @@
       <c r="C25" s="15">
         <v>22</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="15">
+        <v>4</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>7</v>
@@ -2671,13 +2688,17 @@
       <c r="C26" s="15">
         <v>22</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>10</v>
@@ -2685,13 +2706,17 @@
       <c r="C27" s="15">
         <v>22</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="15">
+        <v>5</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>18</v>
@@ -2699,13 +2724,17 @@
       <c r="C28" s="15">
         <v>22</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="10">
+        <v>4</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>26</v>
@@ -2713,40 +2742,44 @@
       <c r="C29" s="15">
         <v>22</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="10">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D30" s="27">
         <v>0</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="10">
         <f>SUM(D6:D30)</f>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2754,7 +2787,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="10"/>
       <c r="C33" s="15"/>
@@ -2762,7 +2795,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="10"/>
       <c r="C34" s="15"/>
@@ -2770,7 +2803,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="10"/>
       <c r="C35" s="15"/>
@@ -2778,7 +2811,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2786,7 +2819,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2794,7 +2827,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2802,7 +2835,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2810,7 +2843,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2818,7 +2851,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2826,7 +2859,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2834,7 +2867,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2842,7 +2875,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2850,7 +2883,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2858,7 +2891,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2866,7 +2899,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2874,7 +2907,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2893,21 +2926,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A15" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="2"/>
+    <col min="1" max="1" width="16.85546875" style="2"/>
     <col min="2" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="8.33203125" style="2"/>
-    <col min="5" max="5" width="37.21875" style="2"/>
-    <col min="6" max="6" width="34.44140625" style="2"/>
-    <col min="7" max="1025" width="8.21875"/>
+    <col min="4" max="4" width="8.28515625" style="2"/>
+    <col min="5" max="5" width="37.28515625" style="2"/>
+    <col min="6" max="6" width="34.42578125" style="2"/>
+    <col min="7" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2915,7 +2948,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +2969,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2956,7 +2989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>42473</v>
       </c>
@@ -2974,7 +3007,7 @@
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>42478</v>
       </c>
@@ -2988,11 +3021,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>42479</v>
       </c>
@@ -3010,7 +3043,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>42480</v>
       </c>
@@ -3021,16 +3054,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>42481</v>
       </c>
@@ -3044,11 +3077,11 @@
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>42485</v>
       </c>
@@ -3062,11 +3095,11 @@
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>42486</v>
       </c>
@@ -3083,50 +3116,50 @@
         <v>22</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>42487</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="28" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="27">
         <v>0</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>42500</v>
       </c>
@@ -3140,11 +3173,11 @@
         <v>6</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>42501</v>
       </c>
@@ -3158,11 +3191,11 @@
         <v>4</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>42506</v>
       </c>
@@ -3170,19 +3203,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" s="27">
         <v>0</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>42507</v>
       </c>
@@ -3196,11 +3229,11 @@
         <v>6</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>42508</v>
       </c>
@@ -3214,11 +3247,11 @@
         <v>6</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>42513</v>
       </c>
@@ -3232,11 +3265,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>42514</v>
       </c>
@@ -3250,11 +3283,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>42515</v>
       </c>
@@ -3268,11 +3301,11 @@
         <v>6</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>42520</v>
       </c>
@@ -3286,11 +3319,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>42522</v>
       </c>
@@ -3304,11 +3337,11 @@
         <v>6</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>42525</v>
       </c>
@@ -3322,29 +3355,29 @@
         <v>6</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D27" s="27">
         <v>0</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>42535</v>
       </c>
@@ -3358,11 +3391,11 @@
         <v>6</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3370,7 +3403,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3378,7 +3411,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3386,7 +3419,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -3394,7 +3427,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3402,7 +3435,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3410,7 +3443,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3418,7 +3451,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3426,7 +3459,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3434,7 +3467,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3442,7 +3475,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3450,7 +3483,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3458,7 +3491,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3466,7 +3499,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3474,7 +3507,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3482,7 +3515,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3490,7 +3523,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3498,7 +3531,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3506,7 +3539,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3514,7 +3547,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3522,7 +3555,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3530,7 +3563,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -3549,21 +3582,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="2"/>
+    <col min="1" max="1" width="16.85546875" style="2"/>
     <col min="2" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="8.21875" style="2"/>
-    <col min="5" max="5" width="37.21875" style="2"/>
-    <col min="6" max="6" width="34.44140625" style="2"/>
-    <col min="7" max="1025" width="8.21875"/>
+    <col min="4" max="4" width="8.28515625" style="2"/>
+    <col min="5" max="5" width="37.28515625" style="2"/>
+    <col min="6" max="6" width="34.42578125" style="2"/>
+    <col min="7" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -3571,7 +3604,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -3592,7 +3625,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3612,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>42473</v>
       </c>
@@ -3630,7 +3663,7 @@
       </c>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>42478</v>
       </c>
@@ -3644,13 +3677,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>42479</v>
       </c>
@@ -3664,13 +3697,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>42480</v>
       </c>
@@ -3684,13 +3717,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>42481</v>
       </c>
@@ -3704,11 +3737,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>42485</v>
       </c>
@@ -3722,13 +3755,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>42486</v>
       </c>
@@ -3742,53 +3775,53 @@
         <v>5</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>42487</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="27">
         <v>0</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>42500</v>
       </c>
@@ -3802,11 +3835,11 @@
         <v>6</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>42501</v>
       </c>
@@ -3820,11 +3853,11 @@
         <v>6</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>42503</v>
       </c>
@@ -3838,11 +3871,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>42506</v>
       </c>
@@ -3850,19 +3883,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D19" s="27">
         <v>0</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>42507</v>
       </c>
@@ -3876,11 +3909,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>42508</v>
       </c>
@@ -3894,11 +3927,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>42513</v>
       </c>
@@ -3912,11 +3945,11 @@
         <v>6</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>42514</v>
       </c>
@@ -3930,11 +3963,11 @@
         <v>8</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>42515</v>
       </c>
@@ -3948,11 +3981,11 @@
         <v>2</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>42520</v>
       </c>
@@ -3966,11 +3999,11 @@
         <v>2</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>42522</v>
       </c>
@@ -3984,11 +4017,11 @@
         <v>4</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>42525</v>
       </c>
@@ -4002,11 +4035,11 @@
         <v>5</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4014,7 +4047,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4022,7 +4055,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4030,7 +4063,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4038,7 +4071,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4046,25 +4079,25 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" s="27">
         <v>0</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4072,7 +4105,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4080,7 +4113,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4088,7 +4121,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4096,7 +4129,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4104,7 +4137,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reinder" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="123">
   <si>
     <t>Datum</t>
   </si>
@@ -442,13 +442,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="168" formatCode="[$-409]General"/>
+    <numFmt numFmtId="169" formatCode="[$-409]mm/dd/yy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -522,8 +524,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,8 +567,14 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -611,13 +625,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -692,9 +722,6 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -710,9 +737,16 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="10" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1794,27 +1828,27 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>42488</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1834,7 +1868,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>42489</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1862,7 +1896,7 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>42500</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1880,7 +1914,7 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>42501</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1898,7 +1932,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>42502</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1916,7 +1950,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>42503</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -1934,27 +1968,27 @@
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>42506</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <v>0</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>42507</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1972,7 +2006,7 @@
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>42508</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -1990,7 +2024,7 @@
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>42514</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -2008,7 +2042,7 @@
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <v>42515</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -2026,7 +2060,7 @@
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>42522</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -2044,7 +2078,7 @@
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>42523</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -2062,7 +2096,7 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>42524</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -2080,20 +2114,20 @@
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="26">
         <v>0</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2252,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2466,22 +2500,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2558,22 +2592,22 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>42506</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>0</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2718,20 +2752,20 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <v>0</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2893,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3106,23 +3140,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:7" s="27" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3162,23 +3196,23 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+    <row r="18" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
         <v>42506</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>0</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3326,26 +3360,26 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>0</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="26" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="33">
+      <c r="A28" s="32">
         <v>42535</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -3547,10 +3581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3769,22 +3803,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3843,22 +3877,22 @@
       <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>42506</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>0</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4006,63 +4040,103 @@
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="10"/>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>42520</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="34">
+        <v>22</v>
+      </c>
+      <c r="D28" s="34">
+        <v>2</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>116</v>
+      </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>42522</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="34">
+        <v>22</v>
+      </c>
+      <c r="D29" s="34">
+        <v>4</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>117</v>
+      </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>42525</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="34">
+        <v>22</v>
+      </c>
+      <c r="D30" s="34">
+        <v>5</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="32">
+        <v>42535</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="12">
+        <v>24</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="27">
-        <v>0</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>121</v>
-      </c>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
@@ -4096,22 +4170,6 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="129">
   <si>
     <t>Datum</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>Testen van bot</t>
+  </si>
+  <si>
+    <t>fdf</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2262,7 +2265,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2751,9 @@
       <c r="E29" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>

--- a/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
+++ b/Logboek/Logboek - P4P - NHL-Helpdeskbot .xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Ruud\Gedeelde bestanden\Informatica\P4P NHL-Helpdeskbot\Logboek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Reinder" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Ruud" sheetId="3" r:id="rId3"/>
     <sheet name="Wander" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="131">
   <si>
     <t>Datum</t>
   </si>
@@ -36,52 +41,6 @@
     <t>Gewerkt in uren</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Werkzaamheden</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(Wat heb je gedaan?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Opmerkingen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(bijzonderheden opschrijven bv. Ziek, andere verplichtingen etc.)</t>
-    </r>
-  </si>
-  <si>
     <t>vb: 19/04/2016</t>
   </si>
   <si>
@@ -449,16 +408,30 @@
   </si>
   <si>
     <t>fdf</t>
+  </si>
+  <si>
+    <t>Presenteren</t>
+  </si>
+  <si>
+    <t>Gedaan</t>
+  </si>
+  <si>
+    <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t>Totaal aan uren:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="[$-409]General"/>
+    <numFmt numFmtId="168" formatCode="[$-409]mm/dd/yy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -470,13 +443,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -534,8 +500,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,8 +543,14 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -623,13 +601,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -646,10 +640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -677,10 +671,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,27 +698,37 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="9" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1059,8 +1063,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2360700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>959</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
@@ -1578,7 +1582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1586,23 +1590,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1"/>
     <col min="2" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="8.28515625" style="2"/>
-    <col min="5" max="5" width="37.28515625" style="2"/>
-    <col min="6" max="6" width="34.42578125" style="2"/>
-    <col min="7" max="1025" width="8.28515625"/>
+    <col min="4" max="4" width="8.33203125" style="2"/>
+    <col min="5" max="5" width="37.33203125" style="2"/>
+    <col min="6" max="6" width="34.44140625" style="2"/>
+    <col min="7" max="1025" width="8.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -1610,7 +1614,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1623,20 +1627,20 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
@@ -1645,18 +1649,18 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>42473</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="12">
         <v>15</v>
@@ -1665,16 +1669,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>42478</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12">
         <v>16</v>
@@ -1683,18 +1687,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>42479</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="12">
         <v>16</v>
@@ -1703,16 +1707,16 @@
         <v>4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>42114</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12">
         <v>16</v>
@@ -1721,18 +1725,18 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>42115</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12">
         <v>16</v>
@@ -1741,18 +1745,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>42485</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12">
         <v>17</v>
@@ -1761,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>42486</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="12">
         <v>17</v>
@@ -1779,58 +1783,58 @@
         <v>5</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>42487</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="E15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>42488</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="12">
         <v>17</v>
@@ -1839,18 +1843,18 @@
         <v>3</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>42489</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <v>42489</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>17</v>
@@ -1859,13 +1863,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1873,12 +1877,12 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
         <v>42500</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="12">
         <v>19</v>
@@ -1887,16 +1891,16 @@
         <v>4</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
         <v>42501</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="12">
         <v>19</v>
@@ -1905,16 +1909,16 @@
         <v>5</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
         <v>42502</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="12">
         <v>19</v>
@@ -1923,16 +1927,16 @@
         <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
         <v>42503</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="12">
         <v>19</v>
@@ -1941,36 +1945,36 @@
         <v>1</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
         <v>42506</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="27">
+      <c r="B23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="26">
         <v>0</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="E23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
         <v>42507</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="12">
         <v>20</v>
@@ -1979,16 +1983,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
         <v>42508</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="12">
         <v>20</v>
@@ -1997,16 +2001,16 @@
         <v>4</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+    <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
         <v>42514</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="12">
         <v>21</v>
@@ -2015,16 +2019,16 @@
         <v>6</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
         <v>42515</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="12">
         <v>21</v>
@@ -2033,16 +2037,16 @@
         <v>5</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
         <v>42522</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="12">
         <v>22</v>
@@ -2051,16 +2055,16 @@
         <v>5</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
         <v>42523</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="12">
         <v>22</v>
@@ -2069,16 +2073,16 @@
         <v>7</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
         <v>42524</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="12">
         <v>22</v>
@@ -2087,45 +2091,65 @@
         <v>5</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="32">
+        <v>42535</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="12">
+        <v>24</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="27">
-        <v>0</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="35">
+        <v>42537</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="15">
+        <v>24</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2133,152 +2157,45 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="12">
+        <f>SUM(D7:D33)</f>
+        <v>73</v>
+      </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A25" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2"/>
+    <col min="1" max="1" width="16.88671875" style="2"/>
     <col min="2" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="8.28515625" style="2"/>
-    <col min="5" max="5" width="37.28515625" style="2"/>
-    <col min="6" max="6" width="34.42578125" style="2"/>
-    <col min="7" max="1025" width="8.28515625"/>
+    <col min="4" max="4" width="8.33203125" style="2"/>
+    <col min="5" max="5" width="37.33203125" style="2"/>
+    <col min="6" max="6" width="34.44140625" style="2"/>
+    <col min="7" max="1025" width="8.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2286,7 +2203,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2299,20 +2216,20 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
+      <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -2321,16 +2238,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="15">
         <v>16</v>
@@ -2339,18 +2256,18 @@
         <v>3</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15">
         <v>16</v>
@@ -2359,16 +2276,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15">
         <v>16</v>
@@ -2377,16 +2294,16 @@
         <v>4</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="15">
         <v>16</v>
@@ -2395,18 +2312,18 @@
         <v>4</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="15">
         <v>16</v>
@@ -2416,15 +2333,15 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="15">
         <v>17</v>
@@ -2434,15 +2351,15 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="15">
         <v>17</v>
@@ -2451,58 +2368,58 @@
         <v>3</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>42487</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="15">
         <v>17</v>
@@ -2511,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="15">
         <v>17</v>
@@ -2529,16 +2446,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>42500</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="15">
         <v>20</v>
@@ -2547,16 +2464,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>42679</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="15">
         <v>20</v>
@@ -2565,36 +2482,36 @@
         <v>5</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
         <v>42506</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="27">
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="26">
         <v>0</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="15">
         <v>21</v>
@@ -2603,16 +2520,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15">
         <v>21</v>
@@ -2621,18 +2538,18 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="B23" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="15">
         <v>21</v>
@@ -2641,16 +2558,16 @@
         <v>4</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="15">
         <v>21</v>
@@ -2659,16 +2576,16 @@
         <v>4</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="15">
         <v>22</v>
@@ -2677,16 +2594,16 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="15">
         <v>22</v>
@@ -2695,16 +2612,16 @@
         <v>4</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="15">
         <v>22</v>
@@ -2713,16 +2630,16 @@
         <v>5</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="15">
         <v>22</v>
@@ -2731,16 +2648,16 @@
         <v>4</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="15">
         <v>22</v>
@@ -2749,50 +2666,67 @@
         <v>5</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="32">
+        <v>42535</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12">
+        <v>24</v>
+      </c>
+      <c r="D31" s="12">
+        <v>6</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="35">
+        <v>42537</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="15">
+        <v>24</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="27">
-        <v>0</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="10">
-        <f>SUM(D6:D30)</f>
-        <v>70</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="10"/>
       <c r="C33" s="15"/>
@@ -2800,125 +2734,18 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="10"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="12">
+        <f>SUM(D6:D32)</f>
+        <v>77</v>
+      </c>
       <c r="C34" s="15"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2929,23 +2756,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A24" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2"/>
+    <col min="1" max="1" width="16.88671875" style="2"/>
     <col min="2" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="8.28515625" style="2"/>
-    <col min="5" max="5" width="37.28515625" style="2"/>
-    <col min="6" max="6" width="34.42578125" style="2"/>
-    <col min="7" max="1025" width="8.28515625"/>
+    <col min="4" max="4" width="8.33203125" style="2"/>
+    <col min="5" max="5" width="37.33203125" style="2"/>
+    <col min="6" max="6" width="34.44140625" style="2"/>
+    <col min="7" max="1025" width="8.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2953,7 +2780,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2966,20 +2793,20 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
@@ -2988,18 +2815,18 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>42473</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="12">
         <v>15</v>
@@ -3008,16 +2835,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>42478</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12">
         <v>16</v>
@@ -3026,16 +2853,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>42479</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="12">
         <v>16</v>
@@ -3044,36 +2871,36 @@
         <v>4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>42480</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12">
         <v>16</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>42481</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12">
         <v>16</v>
@@ -3082,16 +2909,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>42485</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12">
         <v>17</v>
@@ -3100,16 +2927,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>42486</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="12">
         <v>17</v>
@@ -3118,58 +2945,58 @@
         <v>5</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>42487</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="28" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="27" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="E15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>42500</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="12">
         <v>19</v>
@@ -3178,16 +3005,16 @@
         <v>6</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>42501</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="12">
         <v>19</v>
@@ -3196,36 +3023,36 @@
         <v>4</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+    <row r="18" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
         <v>42506</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="B18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="26">
         <v>0</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>42507</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="12">
         <v>20</v>
@@ -3234,16 +3061,16 @@
         <v>6</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>42508</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="12">
         <v>20</v>
@@ -3252,16 +3079,16 @@
         <v>6</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>42513</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="12">
         <v>21</v>
@@ -3270,16 +3097,16 @@
         <v>6</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>42514</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="12">
         <v>21</v>
@@ -3288,16 +3115,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>42515</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="12">
         <v>21</v>
@@ -3306,16 +3133,16 @@
         <v>6</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>42520</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="12">
         <v>22</v>
@@ -3324,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>42522</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="12">
         <v>22</v>
@@ -3342,16 +3169,16 @@
         <v>6</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>42525</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="12">
         <v>22</v>
@@ -3360,34 +3187,34 @@
         <v>6</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="27" t="s">
+    <row r="27" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="F27" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="32">
         <v>42535</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="12">
         <v>24</v>
@@ -3396,19 +3223,29 @@
         <v>6</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="35">
+        <v>42537</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="15">
+        <v>24</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3416,165 +3253,18 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="12">
+        <f>SUM(D3:D29)</f>
+        <v>74</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3585,23 +3275,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2"/>
+    <col min="1" max="1" width="16.88671875" style="2"/>
     <col min="2" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="8.28515625" style="2"/>
-    <col min="5" max="5" width="37.28515625" style="2"/>
-    <col min="6" max="6" width="34.42578125" style="2"/>
-    <col min="7" max="1025" width="8.28515625"/>
+    <col min="4" max="4" width="8.33203125" style="2"/>
+    <col min="5" max="5" width="37.33203125" style="2"/>
+    <col min="6" max="6" width="34.44140625" style="2"/>
+    <col min="7" max="1025" width="8.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -3609,7 +3299,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -3622,20 +3312,20 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
@@ -3644,18 +3334,18 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>42473</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="24">
         <v>15</v>
@@ -3664,16 +3354,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>42478</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="24">
         <v>16</v>
@@ -3682,18 +3372,18 @@
         <v>2</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>42479</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="24">
         <v>16</v>
@@ -3702,18 +3392,18 @@
         <v>4</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>42480</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="24">
         <v>16</v>
@@ -3722,18 +3412,18 @@
         <v>6</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>42481</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="24">
         <v>16</v>
@@ -3742,16 +3432,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>42485</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="24">
         <v>17</v>
@@ -3760,18 +3450,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>42486</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="24">
         <v>17</v>
@@ -3780,58 +3470,58 @@
         <v>5</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>42487</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="E15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>42500</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="24">
         <v>19</v>
@@ -3840,16 +3530,16 @@
         <v>6</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>42501</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="24">
         <v>19</v>
@@ -3858,16 +3548,16 @@
         <v>6</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>42503</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="24">
         <v>19</v>
@@ -3876,36 +3566,36 @@
         <v>1</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
         <v>42506</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="B19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="26">
         <v>0</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>42507</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="24">
         <v>20</v>
@@ -3914,16 +3604,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>42508</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="24">
         <v>20</v>
@@ -3932,16 +3622,16 @@
         <v>6</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>42513</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="24">
         <v>21</v>
@@ -3950,16 +3640,16 @@
         <v>6</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>42514</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="24">
         <v>21</v>
@@ -3968,16 +3658,16 @@
         <v>8</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>42515</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="24">
         <v>21</v>
@@ -3986,16 +3676,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>42520</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="24">
         <v>21</v>
@@ -4004,16 +3694,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>42522</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="24">
         <v>21</v>
@@ -4022,16 +3712,16 @@
         <v>4</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>42525</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="24">
         <v>21</v>
@@ -4040,69 +3730,119 @@
         <v>5</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>42520</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="34">
+        <v>22</v>
+      </c>
+      <c r="D28" s="34">
+        <v>2</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>42522</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="34">
+        <v>22</v>
+      </c>
+      <c r="D29" s="34">
+        <v>4</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>42525</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="34">
+        <v>22</v>
+      </c>
+      <c r="D30" s="34">
+        <v>5</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="C31" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="32">
+        <v>42535</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="12">
+        <v>24</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="27">
-        <v>0</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="35">
+        <v>42537</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="15">
+        <v>24</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4110,45 +3850,18 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="12">
+        <f>SUM(D7:D33)</f>
+        <v>92</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
